--- a/CRUDCreateCode/data/input/models/Product.xlsx
+++ b/CRUDCreateCode/data/input/models/Product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C4107B-F92A-0E40-B627-3FA8A16537BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDEA7C8-2108-FB42-8B3F-7FB101F0662F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="760" windowWidth="27220" windowHeight="18880" activeTab="11" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
+    <workbookView xWindow="3020" yWindow="760" windowWidth="27220" windowHeight="18880" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="html" sheetId="5" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model!$B$1:$Z$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model!$B$1:$Z$166</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="313">
   <si>
     <t>Variable</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>price</t>
-  </si>
-  <si>
-    <t>stock_quantity</t>
   </si>
   <si>
     <t>category</t>
@@ -591,9 +588,6 @@
   </si>
   <si>
     <t>models.DecimalField(max_digits=5,decimal_places=2,help_text="Percentage")</t>
-  </si>
-  <si>
-    <t>type</t>
   </si>
   <si>
     <t>models.SlugField(max_length=255,unique=True)</t>
@@ -1417,9 +1411,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}">
-  <dimension ref="A1:Z167"/>
+  <dimension ref="A1:Z166"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1434,7 +1430,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1526,7 +1522,7 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R2" s="2"/>
       <c r="V2" s="2">
@@ -1553,7 +1549,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1581,7 +1577,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V4" s="2">
         <v>1</v>
@@ -1601,14 +1597,15 @@
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="O5" s="2"/>
       <c r="V5" s="2">
         <v>1</v>
       </c>
@@ -1624,34 +1621,31 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>235</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="V6" s="2">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="V6" s="2"/>
       <c r="X6" s="2">
         <v>1</v>
       </c>
-      <c r="Z6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -1660,7 +1654,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1675,42 +1669,44 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="V8" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
       <c r="X8" s="2">
         <v>1</v>
       </c>
-      <c r="Z8" s="2"/>
+      <c r="Z8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
       <c r="B9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
       <c r="D9" t="s">
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
-      </c>
-      <c r="S9" s="2"/>
+        <v>62</v>
+      </c>
       <c r="V9" s="2">
         <v>1</v>
       </c>
@@ -1726,25 +1722,19 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="V10" s="2">
-        <v>1</v>
-      </c>
-      <c r="X10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -1752,19 +1742,25 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -1772,16 +1768,16 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="V12" s="2">
         <v>1</v>
@@ -1798,16 +1794,16 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="V13" s="2">
         <v>1</v>
@@ -1824,42 +1820,40 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="V14" s="2">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="V14" s="2"/>
       <c r="X14" s="2">
         <v>1</v>
       </c>
-      <c r="Z14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1874,51 +1868,47 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="V16" s="2"/>
+      <c r="V16" s="2">
+        <v>1</v>
+      </c>
       <c r="X16" s="2">
         <v>1</v>
       </c>
-      <c r="Z16" s="2"/>
+      <c r="Z16" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="V17" s="2">
-        <v>1</v>
-      </c>
-      <c r="X17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
@@ -1926,19 +1916,25 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" t="s">
-        <v>48</v>
+        <v>226</v>
+      </c>
+      <c r="V18" s="2">
+        <v>1</v>
+      </c>
+      <c r="X18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
@@ -1949,13 +1945,13 @@
         <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>228</v>
+        <v>60</v>
       </c>
       <c r="V19" s="2">
         <v>1</v>
@@ -1975,10 +1971,10 @@
         <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
@@ -2001,13 +1997,13 @@
         <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="V21" s="2">
         <v>1</v>
@@ -2015,9 +2011,7 @@
       <c r="X21" s="2">
         <v>1</v>
       </c>
-      <c r="Z21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -2027,13 +2021,13 @@
         <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="V22" s="2">
         <v>1</v>
@@ -2056,10 +2050,10 @@
         <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V23" s="2">
         <v>1</v>
@@ -2076,42 +2070,40 @@
         <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>233</v>
-      </c>
-      <c r="V24" s="2">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="V24" s="2"/>
       <c r="X24" s="2">
         <v>1</v>
       </c>
-      <c r="Z24" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2126,49 +2118,45 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="V26" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1</v>
+      </c>
       <c r="X26" s="2">
         <v>1</v>
       </c>
-      <c r="Z26" s="2"/>
+      <c r="Z26" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>234</v>
-      </c>
-      <c r="V27" s="2">
-        <v>1</v>
-      </c>
-      <c r="X27" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
@@ -2176,19 +2164,25 @@
         <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" t="s">
-        <v>48</v>
+        <v>84</v>
+      </c>
+      <c r="V28" s="2">
+        <v>1</v>
+      </c>
+      <c r="X28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
@@ -2202,10 +2196,10 @@
         <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="V29" s="2">
         <v>1</v>
@@ -2225,13 +2219,13 @@
         <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="V30" s="2">
         <v>1</v>
@@ -2251,13 +2245,13 @@
         <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="V31" s="2">
         <v>1</v>
@@ -2274,16 +2268,16 @@
         <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V32" s="2">
         <v>1</v>
@@ -2306,10 +2300,10 @@
         <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V33" s="2">
         <v>1</v>
@@ -2326,16 +2320,16 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>310</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V34" s="2">
         <v>1</v>
@@ -2352,42 +2346,40 @@
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>312</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
-      </c>
-      <c r="V35" s="2">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="V35" s="2"/>
       <c r="X35" s="2">
         <v>1</v>
       </c>
-      <c r="Z35" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -2402,43 +2394,45 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="X37" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" t="s">
-        <v>48</v>
+        <v>226</v>
+      </c>
+      <c r="V38" s="2">
+        <v>1</v>
+      </c>
+      <c r="X38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
@@ -2446,16 +2440,16 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>228</v>
+        <v>60</v>
       </c>
       <c r="V39" s="2">
         <v>1</v>
@@ -2472,16 +2466,16 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
       </c>
       <c r="D40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" t="s">
         <v>80</v>
-      </c>
-      <c r="E40" t="s">
-        <v>61</v>
       </c>
       <c r="V40" s="2">
         <v>1</v>
@@ -2498,16 +2492,16 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
         <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="V41" s="2">
         <v>1</v>
@@ -2524,16 +2518,16 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V42" s="2">
         <v>1</v>
@@ -2550,16 +2544,16 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
         <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="V43" s="2">
         <v>1</v>
@@ -2576,16 +2570,16 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
         <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="V44" s="2">
         <v>1</v>
@@ -2602,16 +2596,16 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V45" s="2">
         <v>1</v>
@@ -2631,13 +2625,13 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V46" s="2">
         <v>1</v>
@@ -2654,16 +2648,16 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V47" s="2">
         <v>1</v>
@@ -2680,42 +2674,40 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
-      </c>
-      <c r="V48" s="2">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="V48" s="2"/>
       <c r="X48" s="2">
         <v>1</v>
       </c>
-      <c r="Z48" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -2730,43 +2722,45 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="X50" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z50" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="F50" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" t="s">
-        <v>48</v>
+        <v>84</v>
+      </c>
+      <c r="V51" s="2">
+        <v>1</v>
+      </c>
+      <c r="X51" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
@@ -2774,16 +2768,16 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="V52" s="2">
         <v>1</v>
@@ -2803,13 +2797,13 @@
         <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V53" s="2">
         <v>1</v>
@@ -2832,10 +2826,10 @@
         <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V54" s="2">
         <v>1</v>
@@ -2858,10 +2852,10 @@
         <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V55" s="2">
         <v>1</v>
@@ -2881,13 +2875,13 @@
         <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="V56" s="2">
         <v>1</v>
@@ -2904,42 +2898,40 @@
         <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
         <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E57" t="s">
-        <v>91</v>
-      </c>
-      <c r="V57" s="2">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="V57" s="2"/>
       <c r="X57" s="2">
         <v>1</v>
       </c>
-      <c r="Z57" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
@@ -2954,43 +2946,45 @@
         <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="X59" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z59" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="F59" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
-      </c>
-      <c r="F60" t="s">
-        <v>48</v>
+        <v>92</v>
+      </c>
+      <c r="V60" s="2">
+        <v>1</v>
+      </c>
+      <c r="X60" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
@@ -2998,16 +2992,16 @@
         <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E61" t="s">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="V61" s="2">
         <v>1</v>
@@ -3024,16 +3018,16 @@
         <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E62" t="s">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="V62" s="2">
         <v>1</v>
@@ -3053,13 +3047,13 @@
         <v>94</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V63" s="2">
         <v>1</v>
@@ -3079,13 +3073,13 @@
         <v>95</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E64" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="V64" s="2">
         <v>1</v>
@@ -3093,51 +3087,47 @@
       <c r="X64" s="2">
         <v>1</v>
       </c>
-      <c r="Z64" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z64" s="2"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
         <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E65" t="s">
         <v>36</v>
       </c>
-      <c r="V65" s="2">
-        <v>1</v>
-      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="V65" s="2"/>
       <c r="X65" s="2">
         <v>1</v>
       </c>
-      <c r="Z65" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z65" s="2"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>41</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
@@ -3152,43 +3142,45 @@
         <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="X67" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z67" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="F67" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D68" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" t="s">
-        <v>48</v>
+        <v>226</v>
+      </c>
+      <c r="V68" s="2">
+        <v>1</v>
+      </c>
+      <c r="X68" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.2">
@@ -3196,24 +3188,18 @@
         <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>228</v>
-      </c>
-      <c r="V69" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="X69" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z69" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3222,16 +3208,16 @@
         <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>41</v>
       </c>
       <c r="D70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X70" s="2">
         <v>1</v>
@@ -3242,19 +3228,19 @@
         <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
-      </c>
-      <c r="X71" s="2">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="F71" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.2">
@@ -3262,19 +3248,25 @@
         <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D72" t="s">
         <v>111</v>
       </c>
       <c r="E72" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" t="s">
-        <v>48</v>
+        <v>101</v>
+      </c>
+      <c r="V72" s="2">
+        <v>1</v>
+      </c>
+      <c r="X72" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z72" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.2">
@@ -3282,16 +3274,16 @@
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
         <v>43</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E73" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="V73" s="2">
         <v>1</v>
@@ -3311,13 +3303,13 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E74" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="V74" s="2">
         <v>1</v>
@@ -3334,24 +3326,18 @@
         <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E75" t="s">
-        <v>57</v>
-      </c>
-      <c r="V75" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="X75" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z75" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3360,16 +3346,16 @@
         <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>41</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X76" s="2">
         <v>1</v>
@@ -3380,19 +3366,19 @@
         <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
-      </c>
-      <c r="X77" s="2">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="F77" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.2">
@@ -3400,19 +3386,25 @@
         <v>49</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E78" t="s">
-        <v>47</v>
-      </c>
-      <c r="F78" t="s">
-        <v>48</v>
+        <v>92</v>
+      </c>
+      <c r="V78" s="2">
+        <v>1</v>
+      </c>
+      <c r="X78" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z78" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
@@ -3420,16 +3412,16 @@
         <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C79" t="s">
         <v>38</v>
       </c>
       <c r="D79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E79" t="s">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="V79" s="2">
         <v>1</v>
@@ -3446,16 +3438,16 @@
         <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="C80" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E80" t="s">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="V80" s="2">
         <v>1</v>
@@ -3475,13 +3467,13 @@
         <v>129</v>
       </c>
       <c r="C81" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E81" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V81" s="2">
         <v>1</v>
@@ -3501,13 +3493,13 @@
         <v>130</v>
       </c>
       <c r="C82" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="D82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="V82" s="2">
         <v>1</v>
@@ -3527,13 +3519,13 @@
         <v>131</v>
       </c>
       <c r="C83" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" t="s">
         <v>126</v>
-      </c>
-      <c r="D83" t="s">
-        <v>119</v>
-      </c>
-      <c r="E83" t="s">
-        <v>127</v>
       </c>
       <c r="V83" s="2">
         <v>1</v>
@@ -3550,25 +3542,19 @@
         <v>49</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="C84" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="D84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E84" t="s">
-        <v>127</v>
-      </c>
-      <c r="V84" s="2">
-        <v>1</v>
-      </c>
-      <c r="X84" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z84" s="2">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="F84" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.2">
@@ -3576,19 +3562,25 @@
         <v>49</v>
       </c>
       <c r="B85" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C85" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E85" t="s">
-        <v>47</v>
-      </c>
-      <c r="F85" t="s">
-        <v>48</v>
+        <v>92</v>
+      </c>
+      <c r="V85" s="2">
+        <v>1</v>
+      </c>
+      <c r="X85" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z85" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.2">
@@ -3596,16 +3588,16 @@
         <v>49</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="C86" t="s">
         <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E86" t="s">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="V86" s="2">
         <v>1</v>
@@ -3625,13 +3617,13 @@
         <v>120</v>
       </c>
       <c r="C87" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E87" t="s">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="V87" s="2">
         <v>1</v>
@@ -3648,16 +3640,16 @@
         <v>49</v>
       </c>
       <c r="B88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C88" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D88" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V88" s="2">
         <v>1</v>
@@ -3674,16 +3666,16 @@
         <v>49</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="D89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E89" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="V89" s="2">
         <v>1</v>
@@ -3700,16 +3692,16 @@
         <v>49</v>
       </c>
       <c r="B90" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" t="s">
         <v>125</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" t="s">
         <v>126</v>
-      </c>
-      <c r="D90" t="s">
-        <v>134</v>
-      </c>
-      <c r="E90" t="s">
-        <v>127</v>
       </c>
       <c r="V90" s="2">
         <v>1</v>
@@ -3726,25 +3718,19 @@
         <v>49</v>
       </c>
       <c r="B91" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="C91" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E91" t="s">
-        <v>127</v>
-      </c>
-      <c r="V91" s="2">
-        <v>1</v>
-      </c>
-      <c r="X91" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z91" s="2">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="F91" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.2">
@@ -3752,19 +3738,25 @@
         <v>49</v>
       </c>
       <c r="B92" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D92" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="E92" t="s">
-        <v>47</v>
-      </c>
-      <c r="F92" t="s">
-        <v>48</v>
+        <v>224</v>
+      </c>
+      <c r="V92" s="2">
+        <v>1</v>
+      </c>
+      <c r="X92" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z92" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.2">
@@ -3772,16 +3764,16 @@
         <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="C93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E93" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="V93" s="2">
         <v>1</v>
@@ -3801,13 +3793,13 @@
         <v>139</v>
       </c>
       <c r="C94" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="D94" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E94" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="V94" s="2">
         <v>1</v>
@@ -3824,16 +3816,16 @@
         <v>49</v>
       </c>
       <c r="B95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" t="s">
+        <v>164</v>
+      </c>
+      <c r="D95" t="s">
+        <v>167</v>
+      </c>
+      <c r="E95" t="s">
         <v>140</v>
-      </c>
-      <c r="C95" t="s">
-        <v>165</v>
-      </c>
-      <c r="D95" t="s">
-        <v>168</v>
-      </c>
-      <c r="E95" t="s">
-        <v>141</v>
       </c>
       <c r="V95" s="2">
         <v>1</v>
@@ -3856,10 +3848,10 @@
         <v>165</v>
       </c>
       <c r="D96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E96" t="s">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="V96" s="2">
         <v>1</v>
@@ -3876,25 +3868,19 @@
         <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="C97" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="D97" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E97" t="s">
-        <v>229</v>
-      </c>
-      <c r="V97" s="2">
-        <v>1</v>
-      </c>
-      <c r="X97" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z97" s="2">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="F97" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.2">
@@ -3902,19 +3888,25 @@
         <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D98" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E98" t="s">
-        <v>47</v>
-      </c>
-      <c r="F98" t="s">
-        <v>48</v>
+        <v>224</v>
+      </c>
+      <c r="V98" s="2">
+        <v>1</v>
+      </c>
+      <c r="X98" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z98" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.2">
@@ -3922,16 +3914,16 @@
         <v>49</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D99" t="s">
+        <v>169</v>
+      </c>
+      <c r="E99" t="s">
         <v>170</v>
-      </c>
-      <c r="E99" t="s">
-        <v>226</v>
       </c>
       <c r="V99" s="2">
         <v>1</v>
@@ -3951,13 +3943,13 @@
         <v>139</v>
       </c>
       <c r="C100" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="D100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E100" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="V100" s="2">
         <v>1</v>
@@ -3974,16 +3966,16 @@
         <v>49</v>
       </c>
       <c r="B101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101" t="s">
+        <v>164</v>
+      </c>
+      <c r="D101" t="s">
+        <v>169</v>
+      </c>
+      <c r="E101" t="s">
         <v>140</v>
-      </c>
-      <c r="C101" t="s">
-        <v>165</v>
-      </c>
-      <c r="D101" t="s">
-        <v>170</v>
-      </c>
-      <c r="E101" t="s">
-        <v>141</v>
       </c>
       <c r="V101" s="2">
         <v>1</v>
@@ -4000,16 +3992,16 @@
         <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="C102" t="s">
         <v>165</v>
       </c>
       <c r="D102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E102" t="s">
-        <v>141</v>
+        <v>228</v>
       </c>
       <c r="V102" s="2">
         <v>1</v>
@@ -4026,25 +4018,19 @@
         <v>49</v>
       </c>
       <c r="B103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" t="s">
+        <v>46</v>
+      </c>
+      <c r="D103" t="s">
         <v>169</v>
       </c>
-      <c r="C103" t="s">
-        <v>166</v>
-      </c>
-      <c r="D103" t="s">
-        <v>170</v>
-      </c>
       <c r="E103" t="s">
-        <v>230</v>
-      </c>
-      <c r="V103" s="2">
-        <v>1</v>
-      </c>
-      <c r="X103" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z103" s="2">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="F103" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.2">
@@ -4052,19 +4038,25 @@
         <v>49</v>
       </c>
       <c r="B104" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D104" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E104" t="s">
-        <v>47</v>
-      </c>
-      <c r="F104" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="V104" s="2">
+        <v>1</v>
+      </c>
+      <c r="X104" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z104" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.2">
@@ -4072,16 +4064,16 @@
         <v>49</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="C105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E105" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="V105" s="2">
         <v>1</v>
@@ -4098,16 +4090,16 @@
         <v>49</v>
       </c>
       <c r="B106" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E106" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="V106" s="2">
         <v>1</v>
@@ -4124,24 +4116,18 @@
         <v>49</v>
       </c>
       <c r="B107" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E107" t="s">
-        <v>61</v>
-      </c>
-      <c r="V107" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="X107" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z107" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4150,16 +4136,16 @@
         <v>49</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>41</v>
       </c>
       <c r="D108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X108" s="2">
         <v>1</v>
@@ -4170,19 +4156,19 @@
         <v>49</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C109" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
-      </c>
-      <c r="X109" s="2">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="F109" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.2">
@@ -4190,19 +4176,25 @@
         <v>49</v>
       </c>
       <c r="B110" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C110" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D110" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E110" t="s">
-        <v>47</v>
-      </c>
-      <c r="F110" t="s">
-        <v>48</v>
+        <v>175</v>
+      </c>
+      <c r="V110" s="2">
+        <v>1</v>
+      </c>
+      <c r="X110" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z110" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.2">
@@ -4210,16 +4202,16 @@
         <v>49</v>
       </c>
       <c r="B111" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="C111" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D111" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E111" t="s">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="V111" s="2">
         <v>1</v>
@@ -4236,16 +4228,16 @@
         <v>49</v>
       </c>
       <c r="B112" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C112" t="s">
         <v>38</v>
       </c>
       <c r="D112" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V112" s="2">
         <v>1</v>
@@ -4262,25 +4254,19 @@
         <v>49</v>
       </c>
       <c r="B113" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D113" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E113" t="s">
-        <v>61</v>
-      </c>
-      <c r="V113" s="2">
-        <v>1</v>
-      </c>
-      <c r="X113" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z113" s="2">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="F113" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.2">
@@ -4288,19 +4274,25 @@
         <v>49</v>
       </c>
       <c r="B114" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D114" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E114" t="s">
-        <v>47</v>
-      </c>
-      <c r="F114" t="s">
-        <v>48</v>
+        <v>179</v>
+      </c>
+      <c r="V114" s="2">
+        <v>1</v>
+      </c>
+      <c r="X114" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z114" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.2">
@@ -4308,16 +4300,16 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="C115" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="D115" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E115" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="V115" s="2">
         <v>1</v>
@@ -4334,16 +4326,16 @@
         <v>49</v>
       </c>
       <c r="B116" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C116" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="D116" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E116" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="V116" s="2">
         <v>1</v>
@@ -4360,16 +4352,16 @@
         <v>49</v>
       </c>
       <c r="B117" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="D117" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E117" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="V117" s="2">
         <v>1</v>
@@ -4386,16 +4378,16 @@
         <v>49</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="C118" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D118" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="E118" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="V118" s="2">
         <v>1</v>
@@ -4415,13 +4407,13 @@
         <v>75</v>
       </c>
       <c r="C119" t="s">
+        <v>186</v>
+      </c>
+      <c r="D119" t="s">
+        <v>215</v>
+      </c>
+      <c r="E119" t="s">
         <v>187</v>
-      </c>
-      <c r="D119" t="s">
-        <v>217</v>
-      </c>
-      <c r="E119" t="s">
-        <v>218</v>
       </c>
       <c r="V119" s="2">
         <v>1</v>
@@ -4438,25 +4430,19 @@
         <v>49</v>
       </c>
       <c r="B120" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C120" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="D120" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E120" t="s">
-        <v>189</v>
-      </c>
-      <c r="V120" s="2">
-        <v>1</v>
-      </c>
-      <c r="X120" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z120" s="2">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="F120" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.2">
@@ -4464,19 +4450,25 @@
         <v>49</v>
       </c>
       <c r="B121" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D121" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E121" t="s">
-        <v>47</v>
-      </c>
-      <c r="F121" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="V121" s="2">
+        <v>1</v>
+      </c>
+      <c r="X121" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z121" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.2">
@@ -4484,16 +4476,16 @@
         <v>49</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="C122" t="s">
         <v>38</v>
       </c>
       <c r="D122" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E122" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V122" s="2">
         <v>1</v>
@@ -4510,25 +4502,19 @@
         <v>49</v>
       </c>
       <c r="B123" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="C123" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D123" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E123" t="s">
-        <v>61</v>
-      </c>
-      <c r="V123" s="2">
-        <v>1</v>
-      </c>
-      <c r="X123" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z123" s="2">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="F123" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.2">
@@ -4536,19 +4522,25 @@
         <v>49</v>
       </c>
       <c r="B124" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="C124" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D124" t="s">
+        <v>212</v>
+      </c>
+      <c r="E124" t="s">
         <v>213</v>
       </c>
-      <c r="E124" t="s">
-        <v>47</v>
-      </c>
-      <c r="F124" t="s">
-        <v>48</v>
+      <c r="V124" s="2">
+        <v>1</v>
+      </c>
+      <c r="X124" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z124" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.2">
@@ -4556,16 +4548,16 @@
         <v>49</v>
       </c>
       <c r="B125" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C125" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D125" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E125" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V125" s="2">
         <v>1</v>
@@ -4582,16 +4574,16 @@
         <v>49</v>
       </c>
       <c r="B126" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="C126" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="D126" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E126" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="V126" s="2">
         <v>1</v>
@@ -4608,16 +4600,16 @@
         <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="C127" t="s">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="D127" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E127" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="V127" s="2">
         <v>1</v>
@@ -4634,25 +4626,19 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="C128" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D128" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
-      </c>
-      <c r="V128" s="2">
-        <v>1</v>
-      </c>
-      <c r="X128" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z128" s="2">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="F128" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.2">
@@ -4660,19 +4646,29 @@
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="C129" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D129" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="E129" t="s">
-        <v>47</v>
-      </c>
-      <c r="F129" t="s">
-        <v>48</v>
+        <v>236</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="V129" s="2">
+        <v>1</v>
+      </c>
+      <c r="W129" s="2"/>
+      <c r="X129" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z129" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.2">
@@ -4680,24 +4676,24 @@
         <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C130" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="D130" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E130" t="s">
-        <v>238</v>
-      </c>
-      <c r="F130" s="2" t="s">
         <v>239</v>
       </c>
+      <c r="F130" t="s">
+        <v>240</v>
+      </c>
+      <c r="R130" s="2"/>
       <c r="V130" s="2">
         <v>1</v>
       </c>
-      <c r="W130" s="2"/>
       <c r="X130" s="2">
         <v>1</v>
       </c>
@@ -4710,21 +4706,22 @@
         <v>49</v>
       </c>
       <c r="B131" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C131" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D131" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E131" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F131" t="s">
         <v>242</v>
       </c>
-      <c r="R131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
       <c r="V131" s="2">
         <v>1</v>
       </c>
@@ -4743,19 +4740,17 @@
         <v>243</v>
       </c>
       <c r="C132" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="D132" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E132" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F132" t="s">
-        <v>244</v>
-      </c>
-      <c r="P132" s="2"/>
-      <c r="Q132" s="2"/>
+        <v>245</v>
+      </c>
       <c r="V132" s="2">
         <v>1</v>
       </c>
@@ -4771,19 +4766,19 @@
         <v>49</v>
       </c>
       <c r="B133" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C133" t="s">
         <v>38</v>
       </c>
       <c r="D133" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E133" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F133" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="V133" s="2">
         <v>1</v>
@@ -4800,16 +4795,16 @@
         <v>49</v>
       </c>
       <c r="B134" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C134" t="s">
         <v>38</v>
       </c>
       <c r="D134" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E134" t="s">
-        <v>249</v>
+        <v>123</v>
       </c>
       <c r="F134" t="s">
         <v>250</v>
@@ -4835,13 +4830,13 @@
         <v>38</v>
       </c>
       <c r="D135" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E135" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F135" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V135" s="2">
         <v>1</v>
@@ -4858,19 +4853,19 @@
         <v>49</v>
       </c>
       <c r="B136" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C136" t="s">
         <v>38</v>
       </c>
       <c r="D136" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E136" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F136" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="V136" s="2">
         <v>1</v>
@@ -4887,16 +4882,16 @@
         <v>49</v>
       </c>
       <c r="B137" t="s">
-        <v>254</v>
+        <v>71</v>
       </c>
       <c r="C137" t="s">
         <v>38</v>
       </c>
       <c r="D137" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E137" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="F137" t="s">
         <v>255</v>
@@ -4916,20 +4911,22 @@
         <v>49</v>
       </c>
       <c r="B138" t="s">
-        <v>72</v>
+        <v>302</v>
       </c>
       <c r="C138" t="s">
         <v>38</v>
       </c>
       <c r="D138" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E138" t="s">
+        <v>247</v>
+      </c>
+      <c r="F138" t="s">
         <v>256</v>
       </c>
-      <c r="F138" t="s">
-        <v>257</v>
-      </c>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
       <c r="V138" s="2">
         <v>1</v>
       </c>
@@ -4945,19 +4942,19 @@
         <v>49</v>
       </c>
       <c r="B139" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C139" t="s">
         <v>38</v>
       </c>
       <c r="D139" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E139" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F139" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
@@ -4976,22 +4973,21 @@
         <v>49</v>
       </c>
       <c r="B140" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C140" t="s">
         <v>38</v>
       </c>
       <c r="D140" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E140" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F140" t="s">
         <v>259</v>
       </c>
-      <c r="P140" s="2"/>
-      <c r="Q140" s="2"/>
+      <c r="S140" s="2"/>
       <c r="V140" s="2">
         <v>1</v>
       </c>
@@ -5007,21 +5003,21 @@
         <v>49</v>
       </c>
       <c r="B141" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C141" t="s">
         <v>38</v>
       </c>
       <c r="D141" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E141" t="s">
+        <v>247</v>
+      </c>
+      <c r="F141" t="s">
         <v>260</v>
       </c>
-      <c r="F141" t="s">
-        <v>261</v>
-      </c>
-      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
       <c r="V141" s="2">
         <v>1</v>
       </c>
@@ -5037,21 +5033,20 @@
         <v>49</v>
       </c>
       <c r="B142" t="s">
-        <v>307</v>
+        <v>70</v>
       </c>
       <c r="C142" t="s">
         <v>38</v>
       </c>
       <c r="D142" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E142" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F142" t="s">
-        <v>262</v>
-      </c>
-      <c r="T142" s="2"/>
+        <v>261</v>
+      </c>
       <c r="V142" s="2">
         <v>1</v>
       </c>
@@ -5067,20 +5062,22 @@
         <v>49</v>
       </c>
       <c r="B143" t="s">
-        <v>71</v>
+        <v>306</v>
       </c>
       <c r="C143" t="s">
         <v>38</v>
       </c>
       <c r="D143" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E143" t="s">
+        <v>247</v>
+      </c>
+      <c r="F143" t="s">
         <v>256</v>
       </c>
-      <c r="F143" t="s">
-        <v>263</v>
-      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
       <c r="V143" s="2">
         <v>1</v>
       </c>
@@ -5096,19 +5093,19 @@
         <v>49</v>
       </c>
       <c r="B144" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C144" t="s">
         <v>38</v>
       </c>
       <c r="D144" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E144" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F144" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
@@ -5127,22 +5124,21 @@
         <v>49</v>
       </c>
       <c r="B145" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C145" t="s">
         <v>38</v>
       </c>
       <c r="D145" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E145" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F145" t="s">
         <v>259</v>
       </c>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
+      <c r="S145" s="2"/>
       <c r="V145" s="2">
         <v>1</v>
       </c>
@@ -5158,21 +5154,21 @@
         <v>49</v>
       </c>
       <c r="B146" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C146" t="s">
         <v>38</v>
       </c>
       <c r="D146" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E146" t="s">
+        <v>247</v>
+      </c>
+      <c r="F146" t="s">
         <v>260</v>
       </c>
-      <c r="F146" t="s">
-        <v>261</v>
-      </c>
-      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
       <c r="V146" s="2">
         <v>1</v>
       </c>
@@ -5188,21 +5184,20 @@
         <v>49</v>
       </c>
       <c r="B147" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="C147" t="s">
         <v>38</v>
       </c>
       <c r="D147" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E147" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F147" t="s">
-        <v>262</v>
-      </c>
-      <c r="T147" s="2"/>
+        <v>263</v>
+      </c>
       <c r="V147" s="2">
         <v>1</v>
       </c>
@@ -5221,16 +5216,16 @@
         <v>264</v>
       </c>
       <c r="C148" t="s">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="D148" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E148" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F148" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="V148" s="2">
         <v>1</v>
@@ -5247,16 +5242,16 @@
         <v>49</v>
       </c>
       <c r="B149" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C149" t="s">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="D149" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E149" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F149" t="s">
         <v>269</v>
@@ -5279,16 +5274,16 @@
         <v>270</v>
       </c>
       <c r="C150" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D150" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E150" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F150" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="V150" s="2">
         <v>1</v>
@@ -5305,19 +5300,19 @@
         <v>49</v>
       </c>
       <c r="B151" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C151" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D151" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E151" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F151" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="V151" s="2">
         <v>1</v>
@@ -5334,16 +5329,16 @@
         <v>49</v>
       </c>
       <c r="B152" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C152" t="s">
         <v>38</v>
       </c>
       <c r="D152" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E152" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F152" t="s">
         <v>277</v>
@@ -5369,10 +5364,10 @@
         <v>38</v>
       </c>
       <c r="D153" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E153" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="F153" t="s">
         <v>279</v>
@@ -5392,28 +5387,19 @@
         <v>49</v>
       </c>
       <c r="B154" t="s">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="C154" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D154" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E154" t="s">
-        <v>249</v>
+        <v>47</v>
       </c>
       <c r="F154" t="s">
-        <v>281</v>
-      </c>
-      <c r="V154" s="2">
-        <v>1</v>
-      </c>
-      <c r="X154" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z154" s="2">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.2">
@@ -5421,19 +5407,28 @@
         <v>49</v>
       </c>
       <c r="B155" t="s">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="C155" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D155" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="E155" t="s">
-        <v>47</v>
+        <v>247</v>
       </c>
       <c r="F155" t="s">
-        <v>48</v>
+        <v>282</v>
+      </c>
+      <c r="V155" s="2">
+        <v>1</v>
+      </c>
+      <c r="X155" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z155" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.2">
@@ -5441,16 +5436,16 @@
         <v>49</v>
       </c>
       <c r="B156" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C156" t="s">
         <v>38</v>
       </c>
       <c r="D156" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E156" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F156" t="s">
         <v>284</v>
@@ -5473,16 +5468,16 @@
         <v>285</v>
       </c>
       <c r="C157" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D157" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E157" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="F157" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V157" s="2">
         <v>1</v>
@@ -5499,16 +5494,16 @@
         <v>49</v>
       </c>
       <c r="B158" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C158" t="s">
         <v>39</v>
       </c>
       <c r="D158" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E158" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F158" t="s">
         <v>289</v>
@@ -5534,10 +5529,10 @@
         <v>39</v>
       </c>
       <c r="D159" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E159" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F159" t="s">
         <v>291</v>
@@ -5557,19 +5552,19 @@
         <v>49</v>
       </c>
       <c r="B160" t="s">
-        <v>292</v>
+        <v>146</v>
       </c>
       <c r="C160" t="s">
         <v>39</v>
       </c>
       <c r="D160" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E160" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F160" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V160" s="2">
         <v>1</v>
@@ -5586,16 +5581,16 @@
         <v>49</v>
       </c>
       <c r="B161" t="s">
-        <v>147</v>
+        <v>293</v>
       </c>
       <c r="C161" t="s">
         <v>39</v>
       </c>
       <c r="D161" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E161" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F161" t="s">
         <v>294</v>
@@ -5621,10 +5616,10 @@
         <v>39</v>
       </c>
       <c r="D162" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E162" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F162" t="s">
         <v>296</v>
@@ -5650,10 +5645,10 @@
         <v>39</v>
       </c>
       <c r="D163" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E163" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F163" t="s">
         <v>298</v>
@@ -5679,10 +5674,10 @@
         <v>39</v>
       </c>
       <c r="D164" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E164" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F164" t="s">
         <v>300</v>
@@ -5708,13 +5703,13 @@
         <v>39</v>
       </c>
       <c r="D165" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E165" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F165" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="V165" s="2">
         <v>1</v>
@@ -5731,47 +5726,18 @@
         <v>49</v>
       </c>
       <c r="B166" t="s">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="C166" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D166" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E166" t="s">
-        <v>288</v>
+        <v>47</v>
       </c>
       <c r="F166" t="s">
-        <v>302</v>
-      </c>
-      <c r="V166" s="2">
-        <v>1</v>
-      </c>
-      <c r="X166" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z166" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>49</v>
-      </c>
-      <c r="B167" t="s">
-        <v>45</v>
-      </c>
-      <c r="C167" t="s">
-        <v>46</v>
-      </c>
-      <c r="D167" t="s">
-        <v>283</v>
-      </c>
-      <c r="E167" t="s">
-        <v>47</v>
-      </c>
-      <c r="F167" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5793,7 +5759,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -5819,7 +5785,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -5837,8 +5803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF3DF2-641B-5E44-AA75-D6FFD80FBD8B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5848,7 +5814,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -5881,7 +5847,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -5909,7 +5875,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -5917,10 +5883,10 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -5928,10 +5894,10 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -5939,10 +5905,10 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -5950,10 +5916,10 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -5961,10 +5927,10 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -5972,10 +5938,10 @@
         <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -5983,10 +5949,10 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -5994,10 +5960,10 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6005,10 +5971,10 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6016,10 +5982,10 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6027,10 +5993,10 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6038,10 +6004,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6049,10 +6015,10 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6060,10 +6026,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6071,10 +6037,10 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6082,10 +6048,10 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6093,10 +6059,10 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="187" x14ac:dyDescent="0.2">
@@ -6104,10 +6070,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6115,10 +6081,10 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6126,10 +6092,10 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6137,7 +6103,7 @@
         <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>27</v>
@@ -6148,10 +6114,10 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6159,7 +6125,7 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>27</v>
@@ -6170,10 +6136,10 @@
         <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -6226,21 +6192,21 @@
         <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="S4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" t="s">
         <v>58</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>59</v>
-      </c>
-      <c r="V4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -6253,14 +6219,14 @@
         <v>models.ForeignKey</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D5" t="str">
         <f>RIGHT(K5,U5-S5)</f>
         <v>models.ForeignKey(ProductStock,on_delete=models.CASCADE,related_name='movements')</v>
       </c>
       <c r="K5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -6291,14 +6257,14 @@
         <v>models.CharField</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ref="D6:D12" si="1">RIGHT(K6,U6-S6)</f>
         <v>models.CharField(max_length=50,choices=(('IN','Stock</v>
       </c>
       <c r="K6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -6329,14 +6295,14 @@
         <v>models.PositiveIntegerField</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
         <v>models.PositiveIntegerField()</v>
       </c>
       <c r="K7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
@@ -6367,14 +6333,14 @@
         <v>models.DateTimeField</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
         <v>models.DateTimeField(auto_now_add=True)</v>
       </c>
       <c r="K8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -6405,29 +6371,29 @@
         <v>models.ManyToManyField</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
         <v>models.ManyToManyField('Product',blank=True,help_text="Products</v>
       </c>
       <c r="K9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L9" t="s">
+        <v>143</v>
+      </c>
+      <c r="M9" t="s">
         <v>144</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>145</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>146</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>147</v>
-      </c>
-      <c r="P9" t="s">
-        <v>148</v>
       </c>
       <c r="Q9"/>
       <c r="S9">
@@ -6457,14 +6423,14 @@
         <v>models.DateTimeField</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
         <v>models.DateTimeField(auto_now_add=True)</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
@@ -6493,7 +6459,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" t="e">
         <f t="shared" si="1"/>
@@ -6526,7 +6492,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" t="e">
         <f t="shared" si="1"/>
@@ -6559,14 +6525,14 @@
         <v>models.CharField</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" t="str">
         <f>RIGHT(K13,U13-S13)</f>
         <v>models.CharField(max_length=255)</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S13">
         <f>FIND("=",K13)</f>
@@ -6587,16 +6553,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s">
         <v>154</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>155</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>156</v>
-      </c>
-      <c r="D26" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -6604,33 +6570,33 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" t="s">
         <v>149</v>
-      </c>
-      <c r="F32" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I33" t="s">
+        <v>150</v>
+      </c>
+      <c r="J33" t="s">
         <v>151</v>
-      </c>
-      <c r="J33" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -6638,49 +6604,49 @@
         <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" t="s">
         <v>149</v>
-      </c>
-      <c r="F41" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I42" t="s">
+        <v>150</v>
+      </c>
+      <c r="J42" t="s">
         <v>151</v>
-      </c>
-      <c r="J42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -6688,50 +6654,50 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" t="s">
         <v>149</v>
-      </c>
-      <c r="F49" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J50" t="s">
+        <v>192</v>
+      </c>
+      <c r="K50" t="s">
+        <v>162</v>
+      </c>
+      <c r="L50" t="s">
+        <v>193</v>
+      </c>
+      <c r="M50" t="s">
+        <v>152</v>
+      </c>
+      <c r="N50" t="s">
         <v>194</v>
-      </c>
-      <c r="K50" t="s">
-        <v>163</v>
-      </c>
-      <c r="L50" t="s">
-        <v>195</v>
-      </c>
-      <c r="M50" t="s">
-        <v>153</v>
-      </c>
-      <c r="N50" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -6739,61 +6705,61 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G54" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" t="s">
         <v>149</v>
-      </c>
-      <c r="F58" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J59" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L59" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -6816,7 +6782,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -6830,7 +6796,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -6853,7 +6819,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -6886,7 +6852,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -6915,7 +6881,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -6944,7 +6910,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>29</v>
@@ -6970,7 +6936,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>

--- a/CRUDCreateCode/data/input/models/Product.xlsx
+++ b/CRUDCreateCode/data/input/models/Product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDEA7C8-2108-FB42-8B3F-7FB101F0662F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858A23E5-8CEE-264F-9C2D-9E10D61A9162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3020" yWindow="760" windowWidth="27220" windowHeight="18880" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}">
   <dimension ref="A1:Z166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4697,9 +4697,7 @@
       <c r="X130" s="2">
         <v>1</v>
       </c>
-      <c r="Z130" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z130" s="2"/>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -4715,7 +4713,7 @@
         <v>235</v>
       </c>
       <c r="E131" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="F131" t="s">
         <v>242</v>

--- a/CRUDCreateCode/data/input/models/Product.xlsx
+++ b/CRUDCreateCode/data/input/models/Product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858A23E5-8CEE-264F-9C2D-9E10D61A9162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1294180-E9A9-354E-862D-72656B0E5F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="760" windowWidth="27220" windowHeight="18880" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
+    <workbookView xWindow="2220" yWindow="500" windowWidth="38400" windowHeight="18880" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="html" sheetId="5" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model!$B$1:$Z$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model!$A$1:$F$182</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="333">
   <si>
     <t>Variable</t>
   </si>
@@ -305,9 +305,6 @@
     <t>FIN =</t>
   </si>
   <si>
-    <t>models.ForeignKey(Order,on_delete=models.CASCADE)</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
@@ -329,9 +326,6 @@
     <t>review_date=models.DateTimeField(auto_now_add=True)</t>
   </si>
   <si>
-    <t>models.ForeignKey(Product,on_delete=models.CASCADE)</t>
-  </si>
-  <si>
     <t>rating</t>
   </si>
   <si>
@@ -354,9 +348,6 @@
   </si>
   <si>
     <t>cart</t>
-  </si>
-  <si>
-    <t>models.ForeignKey(Cart,on_delete=models.CASCADE)</t>
   </si>
   <si>
     <t xml:space="preserve">    class Meta:
@@ -602,9 +593,6 @@
     <t>ProductAttribute</t>
   </si>
   <si>
-    <t>models.ForeignKey(Product,related_name='attributes',on_delete=models.CASCADE)</t>
-  </si>
-  <si>
     <t>attribute</t>
   </si>
   <si>
@@ -614,9 +602,6 @@
     <t>ProductImage</t>
   </si>
   <si>
-    <t>models.ForeignKey(Product,related_name='images',on_delete=models.CASCADE)</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -714,9 +699,6 @@
   </si>
   <si>
     <t>InventoryMovement</t>
-  </si>
-  <si>
-    <t>models.ForeignKey(ProductStock,on_delete=models.CASCADE,related_name='movements')</t>
   </si>
   <si>
     <t xml:space="preserve">    def __str__(self):
@@ -724,9 +706,6 @@
   </si>
   <si>
     <t>ProductStock</t>
-  </si>
-  <si>
-    <t>models.OneToOneField(Product,related_name='product stock',on_delete=models.CASCADE)</t>
   </si>
   <si>
     <t>models.CharField(max_length=50, choices=(('IN', 'Stock In'), ('OUT', 'Stock Out')))</t>
@@ -778,25 +757,7 @@
     <t>models.ForeignKey(User,on_delete=models.CASCADE)</t>
   </si>
   <si>
-    <t>models.ManyToManyField(Product,blank=True,help_text="Products")</t>
-  </si>
-  <si>
-    <t>models.ManyToManyField(Invoice,blank=True,help_text="Invoices")</t>
-  </si>
-  <si>
     <t>models.DecimalField(max_digits=5,decimal_places=2,help_text="Percentage)</t>
-  </si>
-  <si>
-    <t>models.ForeignKey(Address,related_name='shipping_address',on_delete=models.SET_NULL,null=True)</t>
-  </si>
-  <si>
-    <t>models.ForeignKey(Address,related_name='billing_address',on_delete=models.SET_NULL,null=True)</t>
-  </si>
-  <si>
-    <t>models.ForeignKey(Payment,on_delete=models.SET_NULL,null=True)</t>
-  </si>
-  <si>
-    <t>models.ForeignKey(ProductCategory,on_delete=models.CASCADE)</t>
   </si>
   <si>
     <t>invoice_number</t>
@@ -1035,6 +996,105 @@
   </si>
   <si>
     <t>app_name</t>
+  </si>
+  <si>
+    <t>models.ForeignKey('Product',on_delete=models.CASCADE)</t>
+  </si>
+  <si>
+    <t>models.ManyToManyField('Product',blank=True,help_text="Products")</t>
+  </si>
+  <si>
+    <t>models.ForeignKey('Product',related_name='attributes',on_delete=models.CASCADE)</t>
+  </si>
+  <si>
+    <t>models.ForeignKey('Product',related_name='images',on_delete=models.CASCADE)</t>
+  </si>
+  <si>
+    <t>models.OneToOneField('Product',related_name='product stock',on_delete=models.CASCADE)</t>
+  </si>
+  <si>
+    <t>models.ForeignKey('ProductCategory',on_delete=models.CASCADE)</t>
+  </si>
+  <si>
+    <t>models.ForeignKey('Address',related_name='shipping_address',on_delete=models.SET_NULL,null=True)</t>
+  </si>
+  <si>
+    <t>models.ForeignKey('Address',related_name='billing_address',on_delete=models.SET_NULL,null=True)</t>
+  </si>
+  <si>
+    <t>models.ForeignKey('Payment',on_delete=models.SET_NULL,null=True)</t>
+  </si>
+  <si>
+    <t>models.ForeignKey('Order',on_delete=models.CASCADE)</t>
+  </si>
+  <si>
+    <t>models.ForeignKey('Cart',on_delete=models.CASCADE)</t>
+  </si>
+  <si>
+    <t>models.ManyToManyField('Invoice',blank=True,help_text="Invoices")</t>
+  </si>
+  <si>
+    <t>models.ForeignKey('ProductStock',on_delete=models.CASCADE,related_name='movements')</t>
+  </si>
+  <si>
+    <t>feker_function</t>
+  </si>
+  <si>
+    <t>faker_type</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>ProductNameProvider</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>ProductCategoryProvider</t>
+  </si>
+  <si>
+    <t>Dynamic_ProductCategory</t>
+  </si>
+  <si>
+    <t>Dynamic_User</t>
+  </si>
+  <si>
+    <t>OrderStatusProvider</t>
+  </si>
+  <si>
+    <t>OrderStatus_total_amount_Provider</t>
+  </si>
+  <si>
+    <t>Dynamic_AddressProvider</t>
+  </si>
+  <si>
+    <t>Dynamic_Payment</t>
+  </si>
+  <si>
+    <t>Dynamic_OrderProvider</t>
+  </si>
+  <si>
+    <t>DynamicProductProvider</t>
+  </si>
+  <si>
+    <t>Order_quantity_Provider</t>
+  </si>
+  <si>
+    <t>Order_price_per_item_Provider</t>
+  </si>
+  <si>
+    <t>city()</t>
+  </si>
+  <si>
+    <t>state()</t>
+  </si>
+  <si>
+    <t>zipcode()</t>
+  </si>
+  <si>
+    <t>counrtry()</t>
   </si>
 </sst>
 </file>
@@ -1411,26 +1471,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}">
-  <dimension ref="A1:Z166"/>
+  <dimension ref="A1:AB182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
     <col min="6" max="6" width="32.1640625" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" customWidth="1"/>
-    <col min="8" max="13" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" customWidth="1"/>
+    <col min="10" max="15" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1448,67 +1510,73 @@
         <v>28</v>
       </c>
       <c r="G1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1524,18 +1592,21 @@
       <c r="E2" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="V2" s="2">
-        <v>1</v>
-      </c>
+      <c r="H2" t="s">
+        <v>316</v>
+      </c>
+      <c r="T2" s="2"/>
       <c r="X2" s="2">
         <v>1</v>
       </c>
       <c r="Z2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1551,19 +1622,22 @@
       <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="V3" s="2">
-        <v>1</v>
-      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
       <c r="X3" s="2">
         <v>1</v>
       </c>
       <c r="Z3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1579,8 +1653,8 @@
       <c r="E4" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="2">
-        <v>1</v>
+      <c r="H4" t="s">
+        <v>315</v>
       </c>
       <c r="X4" s="2">
         <v>1</v>
@@ -1588,8 +1662,11 @@
       <c r="Z4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1603,20 +1680,23 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="V5" s="2">
-        <v>1</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="H5" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="X5" s="2">
         <v>1</v>
       </c>
       <c r="Z5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1632,15 +1712,18 @@
       <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="X6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>317</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1656,15 +1739,18 @@
       <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="X7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>317</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Z7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="2"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1680,23 +1766,26 @@
       <c r="E8" t="s">
         <v>62</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="V8" s="2">
-        <v>1</v>
-      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" s="2"/>
       <c r="X8" s="2">
         <v>1</v>
       </c>
       <c r="Z8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -1707,8 +1796,8 @@
       <c r="E9" t="s">
         <v>62</v>
       </c>
-      <c r="V9" s="2">
-        <v>1</v>
+      <c r="H9" t="s">
+        <v>8</v>
       </c>
       <c r="X9" s="2">
         <v>1</v>
@@ -1716,8 +1805,11 @@
       <c r="Z9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1736,8 +1828,11 @@
       <c r="F10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1748,13 +1843,13 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
         <v>60</v>
       </c>
-      <c r="V11" s="2">
-        <v>1</v>
+      <c r="H11" t="s">
+        <v>318</v>
       </c>
       <c r="X11" s="2">
         <v>1</v>
@@ -1762,8 +1857,11 @@
       <c r="Z11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1774,13 +1872,13 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
         <v>55</v>
       </c>
-      <c r="V12" s="2">
-        <v>1</v>
+      <c r="H12" t="s">
+        <v>8</v>
       </c>
       <c r="X12" s="2">
         <v>1</v>
@@ -1788,8 +1886,11 @@
       <c r="Z12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1800,13 +1901,13 @@
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E13" t="s">
         <v>64</v>
       </c>
-      <c r="V13" s="2">
-        <v>1</v>
+      <c r="H13" t="s">
+        <v>8</v>
       </c>
       <c r="X13" s="2">
         <v>1</v>
@@ -1814,8 +1915,11 @@
       <c r="Z13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1826,20 +1930,23 @@
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="X14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>317</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Z14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="2"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1850,48 +1957,54 @@
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="X15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>317</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Z15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="2"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="V16" s="2">
-        <v>1</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
       <c r="X16" s="2">
         <v>1</v>
       </c>
       <c r="Z16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1902,7 +2015,7 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>
@@ -1910,8 +2023,11 @@
       <c r="F17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1925,10 +2041,10 @@
         <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>226</v>
-      </c>
-      <c r="V18" s="2">
-        <v>1</v>
+        <v>219</v>
+      </c>
+      <c r="H18" t="s">
+        <v>320</v>
       </c>
       <c r="X18" s="2">
         <v>1</v>
@@ -1936,8 +2052,11 @@
       <c r="Z18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1953,8 +2072,8 @@
       <c r="E19" t="s">
         <v>60</v>
       </c>
-      <c r="V19" s="2">
-        <v>1</v>
+      <c r="H19" t="s">
+        <v>321</v>
       </c>
       <c r="X19" s="2">
         <v>1</v>
@@ -1962,8 +2081,11 @@
       <c r="Z19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1979,8 +2101,8 @@
       <c r="E20" t="s">
         <v>61</v>
       </c>
-      <c r="V20" s="2">
-        <v>1</v>
+      <c r="H20" t="s">
+        <v>322</v>
       </c>
       <c r="X20" s="2">
         <v>1</v>
@@ -1988,8 +2110,11 @@
       <c r="Z20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -2005,15 +2130,18 @@
       <c r="E21" t="s">
         <v>36</v>
       </c>
-      <c r="V21" s="2">
-        <v>1</v>
+      <c r="H21" t="s">
+        <v>317</v>
       </c>
       <c r="X21" s="2">
         <v>1</v>
       </c>
-      <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="2"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -2027,10 +2155,10 @@
         <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
-      </c>
-      <c r="V22" s="2">
-        <v>1</v>
+        <v>306</v>
+      </c>
+      <c r="H22" t="s">
+        <v>323</v>
       </c>
       <c r="X22" s="2">
         <v>1</v>
@@ -2038,8 +2166,11 @@
       <c r="Z22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -2053,10 +2184,10 @@
         <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>231</v>
-      </c>
-      <c r="V23" s="2">
-        <v>1</v>
+        <v>307</v>
+      </c>
+      <c r="H23" t="s">
+        <v>323</v>
       </c>
       <c r="X23" s="2">
         <v>1</v>
@@ -2064,8 +2195,11 @@
       <c r="Z23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2081,15 +2215,18 @@
       <c r="E24" t="s">
         <v>36</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="X24" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="2"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>317</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Z24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="2"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -2105,15 +2242,18 @@
       <c r="E25" t="s">
         <v>37</v>
       </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="X25" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>317</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Z25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="2"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2127,10 +2267,10 @@
         <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
-      </c>
-      <c r="V26" s="2">
-        <v>1</v>
+        <v>308</v>
+      </c>
+      <c r="H26" t="s">
+        <v>324</v>
       </c>
       <c r="X26" s="2">
         <v>1</v>
@@ -2138,8 +2278,11 @@
       <c r="Z26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -2158,8 +2301,11 @@
       <c r="F27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -2173,10 +2319,10 @@
         <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
-      </c>
-      <c r="V28" s="2">
-        <v>1</v>
+        <v>309</v>
+      </c>
+      <c r="H28" t="s">
+        <v>325</v>
       </c>
       <c r="X28" s="2">
         <v>1</v>
@@ -2184,8 +2330,11 @@
       <c r="Z28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -2199,10 +2348,10 @@
         <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
-      </c>
-      <c r="V29" s="2">
-        <v>1</v>
+        <v>300</v>
+      </c>
+      <c r="H29" t="s">
+        <v>326</v>
       </c>
       <c r="X29" s="2">
         <v>1</v>
@@ -2210,8 +2359,11 @@
       <c r="Z29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2379,8 @@
       <c r="E30" t="s">
         <v>56</v>
       </c>
-      <c r="V30" s="2">
-        <v>1</v>
+      <c r="H30" t="s">
+        <v>327</v>
       </c>
       <c r="X30" s="2">
         <v>1</v>
@@ -2236,8 +2388,11 @@
       <c r="Z30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2251,10 +2406,10 @@
         <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
-      </c>
-      <c r="V31" s="2">
-        <v>1</v>
+        <v>129</v>
+      </c>
+      <c r="H31" t="s">
+        <v>328</v>
       </c>
       <c r="X31" s="2">
         <v>1</v>
@@ -2262,13 +2417,16 @@
       <c r="Z31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -2277,10 +2435,10 @@
         <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
-      </c>
-      <c r="V32" s="2">
-        <v>1</v>
+        <v>129</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
       </c>
       <c r="X32" s="2">
         <v>1</v>
@@ -2288,13 +2446,16 @@
       <c r="Z32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
@@ -2303,10 +2464,10 @@
         <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
-      </c>
-      <c r="V33" s="2">
-        <v>1</v>
+        <v>129</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
       </c>
       <c r="X33" s="2">
         <v>1</v>
@@ -2314,13 +2475,16 @@
       <c r="Z33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
@@ -2329,10 +2493,10 @@
         <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
-      </c>
-      <c r="V34" s="2">
-        <v>1</v>
+        <v>129</v>
+      </c>
+      <c r="H34" t="s">
+        <v>328</v>
       </c>
       <c r="X34" s="2">
         <v>1</v>
@@ -2340,8 +2504,11 @@
       <c r="Z34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2357,15 +2524,18 @@
       <c r="E35" t="s">
         <v>36</v>
       </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="X35" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="2"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>317</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Z35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="2"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -2381,15 +2551,18 @@
       <c r="E36" t="s">
         <v>37</v>
       </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="X36" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="2"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>317</v>
+      </c>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Z36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="2"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -2408,8 +2581,11 @@
       <c r="F37" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2423,10 +2599,10 @@
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>226</v>
-      </c>
-      <c r="V38" s="2">
-        <v>1</v>
+        <v>219</v>
+      </c>
+      <c r="H38" t="s">
+        <v>320</v>
       </c>
       <c r="X38" s="2">
         <v>1</v>
@@ -2434,8 +2610,11 @@
       <c r="Z38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2451,8 +2630,8 @@
       <c r="E39" t="s">
         <v>60</v>
       </c>
-      <c r="V39" s="2">
-        <v>1</v>
+      <c r="H39" t="s">
+        <v>323</v>
       </c>
       <c r="X39" s="2">
         <v>1</v>
@@ -2460,8 +2639,11 @@
       <c r="Z39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -2477,8 +2659,8 @@
       <c r="E40" t="s">
         <v>80</v>
       </c>
-      <c r="V40" s="2">
-        <v>1</v>
+      <c r="H40" t="s">
+        <v>8</v>
       </c>
       <c r="X40" s="2">
         <v>1</v>
@@ -2486,8 +2668,11 @@
       <c r="Z40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -2503,8 +2688,8 @@
       <c r="E41" t="s">
         <v>60</v>
       </c>
-      <c r="V41" s="2">
-        <v>1</v>
+      <c r="G41" t="s">
+        <v>329</v>
       </c>
       <c r="X41" s="2">
         <v>1</v>
@@ -2512,8 +2697,11 @@
       <c r="Z41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -2529,8 +2717,8 @@
       <c r="E42" t="s">
         <v>60</v>
       </c>
-      <c r="V42" s="2">
-        <v>1</v>
+      <c r="G42" t="s">
+        <v>330</v>
       </c>
       <c r="X42" s="2">
         <v>1</v>
@@ -2538,8 +2726,11 @@
       <c r="Z42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2555,8 +2746,8 @@
       <c r="E43" t="s">
         <v>81</v>
       </c>
-      <c r="V43" s="2">
-        <v>1</v>
+      <c r="G43" t="s">
+        <v>331</v>
       </c>
       <c r="X43" s="2">
         <v>1</v>
@@ -2564,8 +2755,11 @@
       <c r="Z43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -2581,8 +2775,8 @@
       <c r="E44" t="s">
         <v>60</v>
       </c>
-      <c r="V44" s="2">
-        <v>1</v>
+      <c r="G44" t="s">
+        <v>332</v>
       </c>
       <c r="X44" s="2">
         <v>1</v>
@@ -2590,13 +2784,16 @@
       <c r="Z44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
         <v>54</v>
@@ -2607,22 +2804,22 @@
       <c r="E45" t="s">
         <v>62</v>
       </c>
-      <c r="V45" s="2">
-        <v>1</v>
-      </c>
       <c r="X45" s="2">
         <v>1</v>
       </c>
       <c r="Z45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
         <v>54</v>
@@ -2633,17 +2830,17 @@
       <c r="E46" t="s">
         <v>62</v>
       </c>
-      <c r="V46" s="2">
-        <v>1</v>
-      </c>
       <c r="X46" s="2">
         <v>1</v>
       </c>
       <c r="Z46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2659,17 +2856,17 @@
       <c r="E47" t="s">
         <v>60</v>
       </c>
-      <c r="V47" s="2">
-        <v>1</v>
-      </c>
       <c r="X47" s="2">
         <v>1</v>
       </c>
       <c r="Z47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2685,15 +2882,18 @@
       <c r="E48" t="s">
         <v>36</v>
       </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="X48" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="2"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>317</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Z48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="2"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2709,15 +2909,18 @@
       <c r="E49" t="s">
         <v>37</v>
       </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="X49" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="2"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>317</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Z49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="2"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2736,8 +2939,11 @@
       <c r="F50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2748,143 +2954,140 @@
         <v>43</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E51" t="s">
+        <v>309</v>
+      </c>
+      <c r="X51" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
         <v>84</v>
-      </c>
-      <c r="V51" s="2">
-        <v>1</v>
-      </c>
-      <c r="X51" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z51" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" t="s">
-        <v>85</v>
       </c>
       <c r="C52" t="s">
         <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
         <v>61</v>
       </c>
-      <c r="V52" s="2">
-        <v>1</v>
-      </c>
       <c r="X52" s="2">
         <v>1</v>
       </c>
       <c r="Z52" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
         <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E53" t="s">
         <v>60</v>
       </c>
-      <c r="V53" s="2">
-        <v>1</v>
-      </c>
       <c r="X53" s="2">
         <v>1</v>
       </c>
       <c r="Z53" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
         <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E54" t="s">
         <v>60</v>
       </c>
-      <c r="V54" s="2">
-        <v>1</v>
-      </c>
       <c r="X54" s="2">
         <v>1</v>
       </c>
       <c r="Z54" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
         <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E55" t="s">
         <v>60</v>
       </c>
-      <c r="V55" s="2">
-        <v>1</v>
-      </c>
       <c r="X55" s="2">
         <v>1</v>
       </c>
       <c r="Z55" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
         <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E56" t="s">
-        <v>90</v>
-      </c>
-      <c r="V56" s="2">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="X56" s="2">
         <v>1</v>
@@ -2892,8 +3095,11 @@
       <c r="Z56" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2904,20 +3110,23 @@
         <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
       </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="X57" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z57" s="2"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>317</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Z57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="2"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -2928,20 +3137,23 @@
         <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E58" t="s">
         <v>37</v>
       </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="X58" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z58" s="2"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>317</v>
+      </c>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Z58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="2"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -2952,7 +3164,7 @@
         <v>46</v>
       </c>
       <c r="D59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E59" t="s">
         <v>47</v>
@@ -2960,8 +3172,11 @@
       <c r="F59" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2972,13 +3187,10 @@
         <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E60" t="s">
-        <v>92</v>
-      </c>
-      <c r="V60" s="2">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="X60" s="2">
         <v>1</v>
@@ -2986,8 +3198,11 @@
       <c r="Z60" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -2998,13 +3213,10 @@
         <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E61" t="s">
-        <v>226</v>
-      </c>
-      <c r="V61" s="2">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="X61" s="2">
         <v>1</v>
@@ -3012,84 +3224,87 @@
       <c r="Z61" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
         <v>42</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E62" t="s">
         <v>56</v>
       </c>
-      <c r="V62" s="2">
-        <v>1</v>
-      </c>
       <c r="X62" s="2">
         <v>1</v>
       </c>
       <c r="Z62" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
         <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E63" t="s">
         <v>55</v>
       </c>
-      <c r="V63" s="2">
-        <v>1</v>
-      </c>
       <c r="X63" s="2">
         <v>1</v>
       </c>
       <c r="Z63" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
         <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E64" t="s">
         <v>36</v>
       </c>
-      <c r="V64" s="2">
-        <v>1</v>
-      </c>
       <c r="X64" s="2">
         <v>1</v>
       </c>
-      <c r="Z64" s="2"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z64" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="2"/>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -3100,20 +3315,23 @@
         <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E65" t="s">
         <v>36</v>
       </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="X65" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z65" s="2"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H65" t="s">
+        <v>317</v>
+      </c>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Z65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="2"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -3124,20 +3342,23 @@
         <v>41</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E66" t="s">
         <v>37</v>
       </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="X66" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z66" s="2"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>317</v>
+      </c>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Z66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="2"/>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -3148,7 +3369,7 @@
         <v>46</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E67" t="s">
         <v>47</v>
@@ -3156,8 +3377,11 @@
       <c r="F67" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -3168,13 +3392,10 @@
         <v>43</v>
       </c>
       <c r="D68" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E68" t="s">
-        <v>226</v>
-      </c>
-      <c r="V68" s="2">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="X68" s="2">
         <v>1</v>
@@ -3182,8 +3403,11 @@
       <c r="Z68" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -3194,16 +3418,16 @@
         <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
       </c>
-      <c r="X69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -3214,16 +3438,16 @@
         <v>41</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E70" t="s">
         <v>37</v>
       </c>
-      <c r="X70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -3234,7 +3458,7 @@
         <v>46</v>
       </c>
       <c r="D71" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E71" t="s">
         <v>47</v>
@@ -3243,24 +3467,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
         <v>43</v>
       </c>
       <c r="D72" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E72" t="s">
-        <v>101</v>
-      </c>
-      <c r="V72" s="2">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="X72" s="2">
         <v>1</v>
@@ -3268,8 +3489,11 @@
       <c r="Z72" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -3280,13 +3504,10 @@
         <v>43</v>
       </c>
       <c r="D73" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E73" t="s">
-        <v>92</v>
-      </c>
-      <c r="V73" s="2">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="X73" s="2">
         <v>1</v>
@@ -3294,8 +3515,11 @@
       <c r="Z73" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -3306,22 +3530,22 @@
         <v>42</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E74" t="s">
         <v>56</v>
       </c>
-      <c r="V74" s="2">
-        <v>1</v>
-      </c>
       <c r="X74" s="2">
         <v>1</v>
       </c>
       <c r="Z74" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>49</v>
       </c>
@@ -3332,16 +3556,19 @@
         <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E75" t="s">
         <v>36</v>
       </c>
-      <c r="X75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>49</v>
       </c>
@@ -3352,16 +3579,19 @@
         <v>41</v>
       </c>
       <c r="D76" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E76" t="s">
         <v>37</v>
       </c>
-      <c r="X76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H76" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>49</v>
       </c>
@@ -3372,7 +3602,7 @@
         <v>46</v>
       </c>
       <c r="D77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
         <v>47</v>
@@ -3380,8 +3610,11 @@
       <c r="F77" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>49</v>
       </c>
@@ -3392,13 +3625,10 @@
         <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E78" t="s">
-        <v>92</v>
-      </c>
-      <c r="V78" s="2">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="X78" s="2">
         <v>1</v>
@@ -3406,8 +3636,11 @@
       <c r="Z78" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>49</v>
       </c>
@@ -3418,13 +3651,10 @@
         <v>38</v>
       </c>
       <c r="D79" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E79" t="s">
-        <v>226</v>
-      </c>
-      <c r="V79" s="2">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="X79" s="2">
         <v>1</v>
@@ -3432,201 +3662,206 @@
       <c r="Z79" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
         <v>41</v>
       </c>
       <c r="D80" t="s">
+        <v>115</v>
+      </c>
+      <c r="E80" t="s">
         <v>118</v>
       </c>
-      <c r="E80" t="s">
-        <v>121</v>
-      </c>
-      <c r="V80" s="2">
-        <v>1</v>
-      </c>
       <c r="X80" s="2">
         <v>1</v>
       </c>
       <c r="Z80" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
         <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E81" t="s">
+        <v>120</v>
+      </c>
+      <c r="X81" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z81" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" t="s">
+        <v>115</v>
+      </c>
+      <c r="E82" t="s">
         <v>123</v>
       </c>
-      <c r="V81" s="2">
-        <v>1</v>
-      </c>
-      <c r="X81" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>49</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="X82" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z82" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" t="s">
+        <v>115</v>
+      </c>
+      <c r="E83" t="s">
+        <v>123</v>
+      </c>
+      <c r="X83" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z83" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" t="s">
+        <v>115</v>
+      </c>
+      <c r="E84" t="s">
+        <v>36</v>
+      </c>
+      <c r="H84" t="s">
+        <v>317</v>
+      </c>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Z84" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB84" s="2"/>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" t="s">
+        <v>115</v>
+      </c>
+      <c r="E85" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" t="s">
+        <v>317</v>
+      </c>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Z85" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB85" s="2"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" t="s">
+        <v>115</v>
+      </c>
+      <c r="E86" t="s">
+        <v>47</v>
+      </c>
+      <c r="F86" t="s">
+        <v>48</v>
+      </c>
+      <c r="H86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87" t="s">
         <v>130</v>
       </c>
-      <c r="C82" t="s">
-        <v>125</v>
-      </c>
-      <c r="D82" t="s">
-        <v>118</v>
-      </c>
-      <c r="E82" t="s">
-        <v>126</v>
-      </c>
-      <c r="V82" s="2">
-        <v>1</v>
-      </c>
-      <c r="X82" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>49</v>
-      </c>
-      <c r="B83" t="s">
-        <v>131</v>
-      </c>
-      <c r="C83" t="s">
-        <v>125</v>
-      </c>
-      <c r="D83" t="s">
-        <v>118</v>
-      </c>
-      <c r="E83" t="s">
-        <v>126</v>
-      </c>
-      <c r="V83" s="2">
-        <v>1</v>
-      </c>
-      <c r="X83" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>49</v>
-      </c>
-      <c r="B84" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D84" t="s">
-        <v>118</v>
-      </c>
-      <c r="E84" t="s">
-        <v>47</v>
-      </c>
-      <c r="F84" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>49</v>
-      </c>
-      <c r="B85" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" t="s">
-        <v>38</v>
-      </c>
-      <c r="D85" t="s">
-        <v>133</v>
-      </c>
-      <c r="E85" t="s">
-        <v>92</v>
-      </c>
-      <c r="V85" s="2">
-        <v>1</v>
-      </c>
-      <c r="X85" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>49</v>
-      </c>
-      <c r="B86" t="s">
-        <v>119</v>
-      </c>
-      <c r="C86" t="s">
-        <v>38</v>
-      </c>
-      <c r="D86" t="s">
-        <v>133</v>
-      </c>
-      <c r="E86" t="s">
-        <v>226</v>
-      </c>
-      <c r="V86" s="2">
-        <v>1</v>
-      </c>
-      <c r="X86" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z86" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>49</v>
-      </c>
-      <c r="B87" t="s">
-        <v>120</v>
-      </c>
-      <c r="C87" t="s">
-        <v>41</v>
-      </c>
-      <c r="D87" t="s">
-        <v>133</v>
-      </c>
       <c r="E87" t="s">
-        <v>121</v>
-      </c>
-      <c r="V87" s="2">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="X87" s="2">
         <v>1</v>
@@ -3634,273 +3869,284 @@
       <c r="Z87" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>49</v>
       </c>
       <c r="B88" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s">
         <v>38</v>
       </c>
       <c r="D88" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E88" t="s">
+        <v>219</v>
+      </c>
+      <c r="X88" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z88" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" t="s">
+        <v>130</v>
+      </c>
+      <c r="E89" t="s">
+        <v>118</v>
+      </c>
+      <c r="X89" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z89" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" t="s">
+        <v>130</v>
+      </c>
+      <c r="E90" t="s">
+        <v>120</v>
+      </c>
+      <c r="X90" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z90" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91" t="s">
+        <v>130</v>
+      </c>
+      <c r="E91" t="s">
         <v>123</v>
       </c>
-      <c r="V88" s="2">
-        <v>1</v>
-      </c>
-      <c r="X88" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z88" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>49</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="X91" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z91" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" t="s">
+        <v>130</v>
+      </c>
+      <c r="E92" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" t="s">
+        <v>317</v>
+      </c>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Z92" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB92" s="2"/>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>41</v>
+      </c>
+      <c r="D93" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93" t="s">
+        <v>37</v>
+      </c>
+      <c r="H93" t="s">
+        <v>317</v>
+      </c>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Z93" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB93" s="2"/>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" t="s">
         <v>124</v>
       </c>
-      <c r="C89" t="s">
-        <v>125</v>
-      </c>
-      <c r="D89" t="s">
-        <v>133</v>
-      </c>
-      <c r="E89" t="s">
-        <v>126</v>
-      </c>
-      <c r="V89" s="2">
-        <v>1</v>
-      </c>
-      <c r="X89" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z89" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>49</v>
-      </c>
-      <c r="B90" t="s">
-        <v>127</v>
-      </c>
-      <c r="C90" t="s">
-        <v>125</v>
-      </c>
-      <c r="D90" t="s">
-        <v>133</v>
-      </c>
-      <c r="E90" t="s">
-        <v>126</v>
-      </c>
-      <c r="V90" s="2">
-        <v>1</v>
-      </c>
-      <c r="X90" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z90" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="C94" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" t="s">
+        <v>130</v>
+      </c>
+      <c r="E94" t="s">
+        <v>123</v>
+      </c>
+      <c r="X94" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z94" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" t="s">
         <v>45</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C95" t="s">
         <v>46</v>
       </c>
-      <c r="D91" t="s">
-        <v>133</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D95" t="s">
+        <v>130</v>
+      </c>
+      <c r="E95" t="s">
         <v>47</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F95" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>49</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="H95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" t="s">
         <v>3</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C96" t="s">
         <v>38</v>
       </c>
-      <c r="D92" t="s">
-        <v>167</v>
-      </c>
-      <c r="E92" t="s">
-        <v>224</v>
-      </c>
-      <c r="V92" s="2">
-        <v>1</v>
-      </c>
-      <c r="X92" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z92" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>49</v>
-      </c>
-      <c r="B93" t="s">
-        <v>138</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="D96" t="s">
+        <v>164</v>
+      </c>
+      <c r="E96" t="s">
+        <v>217</v>
+      </c>
+      <c r="X96" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z96" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" t="s">
         <v>39</v>
       </c>
-      <c r="D93" t="s">
-        <v>167</v>
-      </c>
-      <c r="E93" t="s">
-        <v>229</v>
-      </c>
-      <c r="V93" s="2">
-        <v>1</v>
-      </c>
-      <c r="X93" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z93" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>49</v>
-      </c>
-      <c r="B94" t="s">
-        <v>139</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="D97" t="s">
         <v>164</v>
       </c>
-      <c r="D94" t="s">
-        <v>167</v>
-      </c>
-      <c r="E94" t="s">
-        <v>140</v>
-      </c>
-      <c r="V94" s="2">
-        <v>1</v>
-      </c>
-      <c r="X94" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z94" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>49</v>
-      </c>
-      <c r="B95" t="s">
-        <v>141</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="E97" t="s">
+        <v>220</v>
+      </c>
+      <c r="X97" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z97" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" t="s">
+        <v>136</v>
+      </c>
+      <c r="C98" t="s">
+        <v>161</v>
+      </c>
+      <c r="D98" t="s">
         <v>164</v>
       </c>
-      <c r="D95" t="s">
-        <v>167</v>
-      </c>
-      <c r="E95" t="s">
-        <v>140</v>
-      </c>
-      <c r="V95" s="2">
-        <v>1</v>
-      </c>
-      <c r="X95" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z95" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>49</v>
-      </c>
-      <c r="B96" t="s">
-        <v>142</v>
-      </c>
-      <c r="C96" t="s">
-        <v>165</v>
-      </c>
-      <c r="D96" t="s">
-        <v>167</v>
-      </c>
-      <c r="E96" t="s">
-        <v>227</v>
-      </c>
-      <c r="V96" s="2">
-        <v>1</v>
-      </c>
-      <c r="X96" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z96" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>49</v>
-      </c>
-      <c r="B97" t="s">
-        <v>45</v>
-      </c>
-      <c r="C97" t="s">
-        <v>46</v>
-      </c>
-      <c r="D97" t="s">
-        <v>167</v>
-      </c>
-      <c r="E97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F97" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>49</v>
-      </c>
-      <c r="B98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" t="s">
-        <v>38</v>
-      </c>
-      <c r="D98" t="s">
-        <v>169</v>
-      </c>
       <c r="E98" t="s">
-        <v>224</v>
-      </c>
-      <c r="V98" s="2">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="X98" s="2">
         <v>1</v>
@@ -3908,8 +4154,11 @@
       <c r="Z98" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>49</v>
       </c>
@@ -3917,16 +4166,13 @@
         <v>138</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="D99" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E99" t="s">
-        <v>170</v>
-      </c>
-      <c r="V99" s="2">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="X99" s="2">
         <v>1</v>
@@ -3934,8 +4180,11 @@
       <c r="Z99" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>49</v>
       </c>
@@ -3943,16 +4192,16 @@
         <v>139</v>
       </c>
       <c r="C100" t="s">
+        <v>162</v>
+      </c>
+      <c r="D100" t="s">
         <v>164</v>
       </c>
-      <c r="D100" t="s">
-        <v>169</v>
-      </c>
       <c r="E100" t="s">
-        <v>140</v>
-      </c>
-      <c r="V100" s="2">
-        <v>1</v>
+        <v>301</v>
+      </c>
+      <c r="H100" t="s">
+        <v>8</v>
       </c>
       <c r="X100" s="2">
         <v>1</v>
@@ -3960,51 +4209,45 @@
       <c r="Z100" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>49</v>
       </c>
       <c r="B101" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="C101" t="s">
+        <v>46</v>
+      </c>
+      <c r="D101" t="s">
         <v>164</v>
       </c>
-      <c r="D101" t="s">
-        <v>169</v>
-      </c>
       <c r="E101" t="s">
-        <v>140</v>
-      </c>
-      <c r="V101" s="2">
-        <v>1</v>
-      </c>
-      <c r="X101" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z101" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E102" t="s">
-        <v>228</v>
-      </c>
-      <c r="V102" s="2">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="X102" s="2">
         <v>1</v>
@@ -4012,45 +4255,51 @@
       <c r="Z102" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>49</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="C103" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D103" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E103" t="s">
-        <v>47</v>
-      </c>
-      <c r="F103" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="X103" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z103" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>49</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="D104" t="s">
         <v>166</v>
       </c>
       <c r="E104" t="s">
-        <v>60</v>
-      </c>
-      <c r="V104" s="2">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="X104" s="2">
         <v>1</v>
@@ -4058,8 +4307,11 @@
       <c r="Z104" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>49</v>
       </c>
@@ -4067,16 +4319,13 @@
         <v>138</v>
       </c>
       <c r="C105" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="D105" t="s">
         <v>166</v>
       </c>
       <c r="E105" t="s">
-        <v>170</v>
-      </c>
-      <c r="V105" s="2">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="X105" s="2">
         <v>1</v>
@@ -4084,39 +4333,43 @@
       <c r="Z105" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>49</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D106" t="s">
         <v>166</v>
       </c>
       <c r="E106" t="s">
-        <v>60</v>
-      </c>
-      <c r="V106" s="2">
-        <v>1</v>
-      </c>
-      <c r="X106" s="2">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H106" t="s">
+        <v>317</v>
+      </c>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="X106" s="2"/>
       <c r="Z106" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB106" s="2"/>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>49</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>41</v>
@@ -4125,33 +4378,46 @@
         <v>166</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
-      </c>
-      <c r="X107" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="H107" t="s">
+        <v>317</v>
+      </c>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="X107" s="2"/>
+      <c r="Z107" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB107" s="2"/>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>49</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="D108" t="s">
         <v>166</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>311</v>
       </c>
       <c r="X108" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z108" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>49</v>
       </c>
@@ -4170,25 +4436,25 @@
       <c r="F109" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>49</v>
       </c>
       <c r="B110" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D110" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E110" t="s">
-        <v>175</v>
-      </c>
-      <c r="V110" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="X110" s="2">
         <v>1</v>
@@ -4196,25 +4462,25 @@
       <c r="Z110" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>49</v>
       </c>
       <c r="B111" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D111" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E111" t="s">
-        <v>60</v>
-      </c>
-      <c r="V111" s="2">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="X111" s="2">
         <v>1</v>
@@ -4222,406 +4488,417 @@
       <c r="Z111" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>49</v>
       </c>
       <c r="B112" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="C112" t="s">
         <v>38</v>
       </c>
       <c r="D112" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E112" t="s">
         <v>60</v>
       </c>
-      <c r="V112" s="2">
-        <v>1</v>
-      </c>
       <c r="X112" s="2">
         <v>1</v>
       </c>
       <c r="Z112" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>49</v>
       </c>
       <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" t="s">
+        <v>163</v>
+      </c>
+      <c r="E113" t="s">
+        <v>36</v>
+      </c>
+      <c r="H113" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" t="s">
+        <v>163</v>
+      </c>
+      <c r="E114" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" t="s">
         <v>45</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C115" t="s">
         <v>46</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D115" t="s">
+        <v>163</v>
+      </c>
+      <c r="E115" t="s">
+        <v>47</v>
+      </c>
+      <c r="F115" t="s">
+        <v>48</v>
+      </c>
+      <c r="H115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" t="s">
+        <v>74</v>
+      </c>
+      <c r="C116" t="s">
+        <v>43</v>
+      </c>
+      <c r="D116" t="s">
+        <v>171</v>
+      </c>
+      <c r="E116" t="s">
+        <v>302</v>
+      </c>
+      <c r="X116" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z116" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>49</v>
+      </c>
+      <c r="B117" t="s">
+        <v>172</v>
+      </c>
+      <c r="C117" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117" t="s">
+        <v>171</v>
+      </c>
+      <c r="E117" t="s">
+        <v>60</v>
+      </c>
+      <c r="X117" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z117" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118" t="s">
+        <v>173</v>
+      </c>
+      <c r="C118" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" t="s">
+        <v>171</v>
+      </c>
+      <c r="E118" t="s">
+        <v>60</v>
+      </c>
+      <c r="X118" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z118" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>49</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>41</v>
+      </c>
+      <c r="D119" t="s">
+        <v>171</v>
+      </c>
+      <c r="E119" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119" t="s">
+        <v>317</v>
+      </c>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="X119" s="2"/>
+      <c r="Z119" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB119" s="2"/>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>49</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" t="s">
+        <v>171</v>
+      </c>
+      <c r="E120" t="s">
+        <v>37</v>
+      </c>
+      <c r="H120" t="s">
+        <v>317</v>
+      </c>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="X120" s="2"/>
+      <c r="Z120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB120" s="2"/>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>49</v>
+      </c>
+      <c r="B121" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121" t="s">
+        <v>46</v>
+      </c>
+      <c r="D121" t="s">
+        <v>171</v>
+      </c>
+      <c r="E121" t="s">
+        <v>47</v>
+      </c>
+      <c r="F121" t="s">
+        <v>48</v>
+      </c>
+      <c r="H121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>49</v>
+      </c>
+      <c r="B122" t="s">
+        <v>74</v>
+      </c>
+      <c r="C122" t="s">
+        <v>43</v>
+      </c>
+      <c r="D122" t="s">
         <v>174</v>
       </c>
-      <c r="E113" t="s">
-        <v>47</v>
-      </c>
-      <c r="F113" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>49</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="E122" t="s">
+        <v>303</v>
+      </c>
+      <c r="X122" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z122" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>49</v>
+      </c>
+      <c r="B123" t="s">
+        <v>175</v>
+      </c>
+      <c r="C123" t="s">
+        <v>176</v>
+      </c>
+      <c r="D123" t="s">
+        <v>174</v>
+      </c>
+      <c r="E123" t="s">
+        <v>177</v>
+      </c>
+      <c r="X123" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z123" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>49</v>
+      </c>
+      <c r="B124" t="s">
+        <v>178</v>
+      </c>
+      <c r="C124" t="s">
+        <v>38</v>
+      </c>
+      <c r="D124" t="s">
+        <v>174</v>
+      </c>
+      <c r="E124" t="s">
+        <v>80</v>
+      </c>
+      <c r="X124" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z124" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B125" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" t="s">
+        <v>161</v>
+      </c>
+      <c r="D125" t="s">
+        <v>174</v>
+      </c>
+      <c r="E125" t="s">
+        <v>137</v>
+      </c>
+      <c r="X125" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z125" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB125" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" t="s">
         <v>74</v>
       </c>
-      <c r="C114" t="s">
-        <v>43</v>
-      </c>
-      <c r="D114" t="s">
-        <v>178</v>
-      </c>
-      <c r="E114" t="s">
-        <v>179</v>
-      </c>
-      <c r="V114" s="2">
-        <v>1</v>
-      </c>
-      <c r="X114" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z114" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>49</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="C126" t="s">
         <v>180</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D126" t="s">
+        <v>209</v>
+      </c>
+      <c r="E126" t="s">
+        <v>304</v>
+      </c>
+      <c r="X126" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z126" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB126" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>49</v>
+      </c>
+      <c r="B127" t="s">
+        <v>75</v>
+      </c>
+      <c r="C127" t="s">
         <v>181</v>
       </c>
-      <c r="D115" t="s">
-        <v>178</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="D127" t="s">
+        <v>209</v>
+      </c>
+      <c r="E127" t="s">
         <v>182</v>
       </c>
-      <c r="V115" s="2">
-        <v>1</v>
-      </c>
-      <c r="X115" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z115" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>49</v>
-      </c>
-      <c r="B116" t="s">
-        <v>183</v>
-      </c>
-      <c r="C116" t="s">
-        <v>38</v>
-      </c>
-      <c r="D116" t="s">
-        <v>178</v>
-      </c>
-      <c r="E116" t="s">
-        <v>80</v>
-      </c>
-      <c r="V116" s="2">
-        <v>1</v>
-      </c>
-      <c r="X116" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z116" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>49</v>
-      </c>
-      <c r="B117" t="s">
-        <v>141</v>
-      </c>
-      <c r="C117" t="s">
-        <v>164</v>
-      </c>
-      <c r="D117" t="s">
-        <v>178</v>
-      </c>
-      <c r="E117" t="s">
-        <v>140</v>
-      </c>
-      <c r="V117" s="2">
-        <v>1</v>
-      </c>
-      <c r="X117" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z117" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>49</v>
-      </c>
-      <c r="B118" t="s">
-        <v>74</v>
-      </c>
-      <c r="C118" t="s">
-        <v>185</v>
-      </c>
-      <c r="D118" t="s">
-        <v>215</v>
-      </c>
-      <c r="E118" t="s">
-        <v>216</v>
-      </c>
-      <c r="V118" s="2">
-        <v>1</v>
-      </c>
-      <c r="X118" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z118" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>49</v>
-      </c>
-      <c r="B119" t="s">
-        <v>75</v>
-      </c>
-      <c r="C119" t="s">
-        <v>186</v>
-      </c>
-      <c r="D119" t="s">
-        <v>215</v>
-      </c>
-      <c r="E119" t="s">
-        <v>187</v>
-      </c>
-      <c r="V119" s="2">
-        <v>1</v>
-      </c>
-      <c r="X119" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z119" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>49</v>
-      </c>
-      <c r="B120" t="s">
-        <v>45</v>
-      </c>
-      <c r="C120" t="s">
-        <v>46</v>
-      </c>
-      <c r="D120" t="s">
-        <v>215</v>
-      </c>
-      <c r="E120" t="s">
-        <v>47</v>
-      </c>
-      <c r="F120" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>49</v>
-      </c>
-      <c r="B121" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" t="s">
-        <v>38</v>
-      </c>
-      <c r="D121" t="s">
-        <v>211</v>
-      </c>
-      <c r="E121" t="s">
-        <v>60</v>
-      </c>
-      <c r="V121" s="2">
-        <v>1</v>
-      </c>
-      <c r="X121" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z121" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>49</v>
-      </c>
-      <c r="B122" t="s">
-        <v>189</v>
-      </c>
-      <c r="C122" t="s">
-        <v>38</v>
-      </c>
-      <c r="D122" t="s">
-        <v>211</v>
-      </c>
-      <c r="E122" t="s">
-        <v>60</v>
-      </c>
-      <c r="V122" s="2">
-        <v>1</v>
-      </c>
-      <c r="X122" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z122" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>49</v>
-      </c>
-      <c r="B123" t="s">
-        <v>45</v>
-      </c>
-      <c r="C123" t="s">
-        <v>46</v>
-      </c>
-      <c r="D123" t="s">
-        <v>211</v>
-      </c>
-      <c r="E123" t="s">
-        <v>47</v>
-      </c>
-      <c r="F123" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>49</v>
-      </c>
-      <c r="B124" t="s">
-        <v>196</v>
-      </c>
-      <c r="C124" t="s">
-        <v>43</v>
-      </c>
-      <c r="D124" t="s">
-        <v>212</v>
-      </c>
-      <c r="E124" t="s">
-        <v>213</v>
-      </c>
-      <c r="V124" s="2">
-        <v>1</v>
-      </c>
-      <c r="X124" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z124" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>49</v>
-      </c>
-      <c r="B125" t="s">
-        <v>197</v>
-      </c>
-      <c r="C125" t="s">
-        <v>38</v>
-      </c>
-      <c r="D125" t="s">
-        <v>212</v>
-      </c>
-      <c r="E125" t="s">
-        <v>217</v>
-      </c>
-      <c r="V125" s="2">
-        <v>1</v>
-      </c>
-      <c r="X125" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z125" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>49</v>
-      </c>
-      <c r="B126" t="s">
-        <v>75</v>
-      </c>
-      <c r="C126" t="s">
-        <v>186</v>
-      </c>
-      <c r="D126" t="s">
-        <v>212</v>
-      </c>
-      <c r="E126" t="s">
-        <v>187</v>
-      </c>
-      <c r="V126" s="2">
-        <v>1</v>
-      </c>
-      <c r="X126" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z126" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>49</v>
-      </c>
-      <c r="B127" t="s">
-        <v>199</v>
-      </c>
-      <c r="C127" t="s">
-        <v>41</v>
-      </c>
-      <c r="D127" t="s">
-        <v>212</v>
-      </c>
-      <c r="E127" t="s">
-        <v>36</v>
-      </c>
-      <c r="V127" s="2">
-        <v>1</v>
-      </c>
       <c r="X127" s="2">
         <v>1</v>
       </c>
       <c r="Z127" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB127" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>49</v>
       </c>
@@ -4632,7 +4909,7 @@
         <v>46</v>
       </c>
       <c r="D128" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E128" t="s">
         <v>47</v>
@@ -4640,175 +4917,154 @@
       <c r="F128" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="C129" t="s">
         <v>38</v>
       </c>
       <c r="D129" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="E129" t="s">
-        <v>236</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="V129" s="2">
-        <v>1</v>
-      </c>
-      <c r="W129" s="2"/>
+        <v>60</v>
+      </c>
       <c r="X129" s="2">
         <v>1</v>
       </c>
       <c r="Z129" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="C130" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="D130" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="E130" t="s">
-        <v>239</v>
-      </c>
-      <c r="F130" t="s">
-        <v>240</v>
-      </c>
-      <c r="R130" s="2"/>
-      <c r="V130" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="X130" s="2">
         <v>1</v>
       </c>
-      <c r="Z130" s="2"/>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z130" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>49</v>
       </c>
       <c r="B131" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="D131" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="E131" t="s">
-        <v>140</v>
-      </c>
-      <c r="F131" t="s">
-        <v>242</v>
-      </c>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
-      <c r="V131" s="2">
-        <v>1</v>
-      </c>
-      <c r="X131" s="2">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H131" t="s">
+        <v>317</v>
+      </c>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="X131" s="2"/>
       <c r="Z131" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB131" s="2"/>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>49</v>
       </c>
       <c r="B132" t="s">
-        <v>243</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D132" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="E132" t="s">
-        <v>244</v>
-      </c>
-      <c r="F132" t="s">
-        <v>245</v>
-      </c>
-      <c r="V132" s="2">
-        <v>1</v>
-      </c>
-      <c r="X132" s="2">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H132" t="s">
+        <v>317</v>
+      </c>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="X132" s="2"/>
       <c r="Z132" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB132" s="2"/>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>49</v>
       </c>
       <c r="B133" t="s">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="C133" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D133" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="E133" t="s">
-        <v>247</v>
+        <v>47</v>
       </c>
       <c r="F133" t="s">
-        <v>248</v>
-      </c>
-      <c r="V133" s="2">
-        <v>1</v>
-      </c>
-      <c r="X133" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z133" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="H133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>49</v>
       </c>
       <c r="B134" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="C134" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D134" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="E134" t="s">
-        <v>123</v>
-      </c>
-      <c r="F134" t="s">
-        <v>250</v>
-      </c>
-      <c r="V134" s="2">
-        <v>1</v>
+        <v>312</v>
       </c>
       <c r="X134" s="2">
         <v>1</v>
@@ -4816,28 +5072,25 @@
       <c r="Z134" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB134" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>49</v>
       </c>
       <c r="B135" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="C135" t="s">
         <v>38</v>
       </c>
       <c r="D135" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="E135" t="s">
-        <v>123</v>
-      </c>
-      <c r="F135" t="s">
-        <v>250</v>
-      </c>
-      <c r="V135" s="2">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="X135" s="2">
         <v>1</v>
@@ -4845,28 +5098,25 @@
       <c r="Z135" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB135" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>49</v>
       </c>
       <c r="B136" t="s">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="D136" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="E136" t="s">
-        <v>123</v>
-      </c>
-      <c r="F136" t="s">
-        <v>253</v>
-      </c>
-      <c r="V136" s="2">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="X136" s="2">
         <v>1</v>
@@ -4874,28 +5124,25 @@
       <c r="Z136" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB136" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>49</v>
       </c>
       <c r="B137" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D137" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="E137" t="s">
-        <v>254</v>
-      </c>
-      <c r="F137" t="s">
-        <v>255</v>
-      </c>
-      <c r="V137" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="X137" s="2">
         <v>1</v>
@@ -4903,212 +5150,196 @@
       <c r="Z137" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>49</v>
       </c>
       <c r="B138" t="s">
-        <v>302</v>
+        <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D138" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="E138" t="s">
-        <v>247</v>
-      </c>
-      <c r="F138" t="s">
-        <v>256</v>
-      </c>
-      <c r="P138" s="2"/>
-      <c r="Q138" s="2"/>
-      <c r="V138" s="2">
-        <v>1</v>
-      </c>
-      <c r="X138" s="2">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H138" t="s">
+        <v>317</v>
+      </c>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="X138" s="2"/>
       <c r="Z138" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB138" s="2"/>
+    </row>
+    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>49</v>
       </c>
       <c r="B139" t="s">
-        <v>303</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D139" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="E139" t="s">
-        <v>247</v>
-      </c>
-      <c r="F139" t="s">
-        <v>257</v>
-      </c>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-      <c r="V139" s="2">
-        <v>1</v>
-      </c>
-      <c r="X139" s="2">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H139" t="s">
+        <v>317</v>
+      </c>
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
+      <c r="X139" s="2"/>
       <c r="Z139" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB139" s="2"/>
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>49</v>
       </c>
       <c r="B140" t="s">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="C140" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D140" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="E140" t="s">
-        <v>258</v>
+        <v>47</v>
       </c>
       <c r="F140" t="s">
-        <v>259</v>
-      </c>
-      <c r="S140" s="2"/>
-      <c r="V140" s="2">
-        <v>1</v>
-      </c>
-      <c r="X140" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z140" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="H140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>49</v>
       </c>
       <c r="B141" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="C141" t="s">
         <v>38</v>
       </c>
       <c r="D141" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E141" t="s">
-        <v>247</v>
-      </c>
-      <c r="F141" t="s">
-        <v>260</v>
-      </c>
-      <c r="T141" s="2"/>
-      <c r="V141" s="2">
-        <v>1</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
       <c r="X141" s="2">
         <v>1</v>
       </c>
+      <c r="Y141" s="2"/>
       <c r="Z141" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB141" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>49</v>
       </c>
       <c r="B142" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="C142" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="D142" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E142" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="F142" t="s">
-        <v>261</v>
-      </c>
-      <c r="V142" s="2">
-        <v>1</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="T142" s="2"/>
       <c r="X142" s="2">
         <v>1</v>
       </c>
       <c r="Z142" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB142" s="2"/>
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>49</v>
       </c>
       <c r="B143" t="s">
-        <v>306</v>
+        <v>228</v>
       </c>
       <c r="C143" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="D143" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E143" t="s">
-        <v>247</v>
+        <v>137</v>
       </c>
       <c r="F143" t="s">
-        <v>256</v>
-      </c>
-      <c r="P143" s="2"/>
-      <c r="Q143" s="2"/>
-      <c r="V143" s="2">
-        <v>1</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
       <c r="X143" s="2">
         <v>1</v>
       </c>
       <c r="Z143" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>49</v>
       </c>
       <c r="B144" t="s">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="C144" t="s">
         <v>38</v>
       </c>
       <c r="D144" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E144" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="F144" t="s">
-        <v>257</v>
-      </c>
-      <c r="P144" s="2"/>
-      <c r="Q144" s="2"/>
-      <c r="V144" s="2">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="X144" s="2">
         <v>1</v>
@@ -5116,59 +5347,57 @@
       <c r="Z144" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>49</v>
       </c>
       <c r="B145" t="s">
-        <v>308</v>
+        <v>233</v>
       </c>
       <c r="C145" t="s">
         <v>38</v>
       </c>
       <c r="D145" t="s">
+        <v>222</v>
+      </c>
+      <c r="E145" t="s">
+        <v>234</v>
+      </c>
+      <c r="F145" t="s">
         <v>235</v>
       </c>
-      <c r="E145" t="s">
-        <v>258</v>
-      </c>
-      <c r="F145" t="s">
-        <v>259</v>
-      </c>
-      <c r="S145" s="2"/>
-      <c r="V145" s="2">
-        <v>1</v>
-      </c>
       <c r="X145" s="2">
         <v>1</v>
       </c>
       <c r="Z145" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>49</v>
       </c>
       <c r="B146" t="s">
-        <v>309</v>
+        <v>236</v>
       </c>
       <c r="C146" t="s">
         <v>38</v>
       </c>
       <c r="D146" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E146" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="F146" t="s">
-        <v>260</v>
-      </c>
-      <c r="T146" s="2"/>
-      <c r="V146" s="2">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="X146" s="2">
         <v>1</v>
@@ -5176,28 +5405,28 @@
       <c r="Z146" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>49</v>
       </c>
       <c r="B147" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="C147" t="s">
         <v>38</v>
       </c>
       <c r="D147" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E147" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="F147" t="s">
-        <v>263</v>
-      </c>
-      <c r="V147" s="2">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="X147" s="2">
         <v>1</v>
@@ -5205,28 +5434,28 @@
       <c r="Z147" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>49</v>
       </c>
       <c r="B148" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="C148" t="s">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="D148" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E148" t="s">
-        <v>266</v>
+        <v>120</v>
       </c>
       <c r="F148" t="s">
-        <v>267</v>
-      </c>
-      <c r="V148" s="2">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="X148" s="2">
         <v>1</v>
@@ -5234,28 +5463,28 @@
       <c r="Z148" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>49</v>
       </c>
       <c r="B149" t="s">
-        <v>268</v>
+        <v>71</v>
       </c>
       <c r="C149" t="s">
         <v>38</v>
       </c>
       <c r="D149" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E149" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F149" t="s">
-        <v>269</v>
-      </c>
-      <c r="V149" s="2">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="X149" s="2">
         <v>1</v>
@@ -5263,480 +5492,957 @@
       <c r="Z149" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>49</v>
       </c>
       <c r="B150" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="C150" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D150" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E150" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F150" t="s">
-        <v>272</v>
-      </c>
-      <c r="V150" s="2">
-        <v>1</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
       <c r="X150" s="2">
         <v>1</v>
       </c>
       <c r="Z150" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB150" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>49</v>
       </c>
       <c r="B151" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="C151" t="s">
         <v>38</v>
       </c>
       <c r="D151" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E151" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="F151" t="s">
-        <v>275</v>
-      </c>
-      <c r="V151" s="2">
-        <v>1</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="R151" s="2"/>
+      <c r="S151" s="2"/>
       <c r="X151" s="2">
         <v>1</v>
       </c>
       <c r="Z151" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB151" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>49</v>
       </c>
       <c r="B152" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C152" t="s">
         <v>38</v>
       </c>
       <c r="D152" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E152" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="F152" t="s">
-        <v>277</v>
-      </c>
-      <c r="V152" s="2">
-        <v>1</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="U152" s="2"/>
       <c r="X152" s="2">
         <v>1</v>
       </c>
       <c r="Z152" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB152" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>49</v>
       </c>
       <c r="B153" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="C153" t="s">
         <v>38</v>
       </c>
       <c r="D153" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E153" t="s">
+        <v>234</v>
+      </c>
+      <c r="F153" t="s">
         <v>247</v>
       </c>
-      <c r="F153" t="s">
-        <v>279</v>
-      </c>
-      <c r="V153" s="2">
-        <v>1</v>
-      </c>
+      <c r="V153" s="2"/>
       <c r="X153" s="2">
         <v>1</v>
       </c>
       <c r="Z153" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB153" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>49</v>
       </c>
       <c r="B154" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C154" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D154" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E154" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="F154" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="X154" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z154" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB154" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>49</v>
       </c>
       <c r="B155" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C155" t="s">
         <v>38</v>
       </c>
       <c r="D155" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="E155" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="F155" t="s">
-        <v>282</v>
-      </c>
-      <c r="V155" s="2">
-        <v>1</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
       <c r="X155" s="2">
         <v>1</v>
       </c>
       <c r="Z155" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB155" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>49</v>
       </c>
       <c r="B156" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="C156" t="s">
         <v>38</v>
       </c>
       <c r="D156" t="s">
+        <v>222</v>
+      </c>
+      <c r="E156" t="s">
+        <v>234</v>
+      </c>
+      <c r="F156" t="s">
+        <v>244</v>
+      </c>
+      <c r="R156" s="2"/>
+      <c r="S156" s="2"/>
+      <c r="X156" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z156" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB156" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>49</v>
+      </c>
+      <c r="B157" t="s">
+        <v>295</v>
+      </c>
+      <c r="C157" t="s">
+        <v>38</v>
+      </c>
+      <c r="D157" t="s">
+        <v>222</v>
+      </c>
+      <c r="E157" t="s">
+        <v>245</v>
+      </c>
+      <c r="F157" t="s">
+        <v>246</v>
+      </c>
+      <c r="U157" s="2"/>
+      <c r="X157" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z157" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB157" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>49</v>
+      </c>
+      <c r="B158" t="s">
+        <v>296</v>
+      </c>
+      <c r="C158" t="s">
+        <v>38</v>
+      </c>
+      <c r="D158" t="s">
+        <v>222</v>
+      </c>
+      <c r="E158" t="s">
+        <v>234</v>
+      </c>
+      <c r="F158" t="s">
+        <v>247</v>
+      </c>
+      <c r="V158" s="2"/>
+      <c r="X158" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z158" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB158" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>49</v>
+      </c>
+      <c r="B159" t="s">
+        <v>249</v>
+      </c>
+      <c r="C159" t="s">
+        <v>38</v>
+      </c>
+      <c r="D159" t="s">
+        <v>222</v>
+      </c>
+      <c r="E159" t="s">
+        <v>234</v>
+      </c>
+      <c r="F159" t="s">
+        <v>250</v>
+      </c>
+      <c r="X159" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z159" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB159" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>49</v>
+      </c>
+      <c r="B160" t="s">
+        <v>251</v>
+      </c>
+      <c r="C160" t="s">
+        <v>252</v>
+      </c>
+      <c r="D160" t="s">
+        <v>222</v>
+      </c>
+      <c r="E160" t="s">
+        <v>253</v>
+      </c>
+      <c r="F160" t="s">
+        <v>254</v>
+      </c>
+      <c r="X160" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z160" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB160" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>49</v>
+      </c>
+      <c r="B161" t="s">
+        <v>255</v>
+      </c>
+      <c r="C161" t="s">
+        <v>38</v>
+      </c>
+      <c r="D161" t="s">
+        <v>222</v>
+      </c>
+      <c r="E161" t="s">
+        <v>245</v>
+      </c>
+      <c r="F161" t="s">
+        <v>256</v>
+      </c>
+      <c r="X161" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z161" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB161" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>49</v>
+      </c>
+      <c r="B162" t="s">
+        <v>257</v>
+      </c>
+      <c r="C162" t="s">
+        <v>40</v>
+      </c>
+      <c r="D162" t="s">
+        <v>222</v>
+      </c>
+      <c r="E162" t="s">
+        <v>258</v>
+      </c>
+      <c r="F162" t="s">
+        <v>259</v>
+      </c>
+      <c r="X162" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z162" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB162" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>49</v>
+      </c>
+      <c r="B163" t="s">
+        <v>260</v>
+      </c>
+      <c r="C163" t="s">
+        <v>38</v>
+      </c>
+      <c r="D163" t="s">
+        <v>222</v>
+      </c>
+      <c r="E163" t="s">
+        <v>261</v>
+      </c>
+      <c r="F163" t="s">
+        <v>262</v>
+      </c>
+      <c r="X163" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z163" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB163" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>49</v>
+      </c>
+      <c r="B164" t="s">
+        <v>263</v>
+      </c>
+      <c r="C164" t="s">
+        <v>38</v>
+      </c>
+      <c r="D164" t="s">
+        <v>222</v>
+      </c>
+      <c r="E164" t="s">
+        <v>261</v>
+      </c>
+      <c r="F164" t="s">
+        <v>264</v>
+      </c>
+      <c r="X164" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z164" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB164" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>49</v>
+      </c>
+      <c r="B165" t="s">
+        <v>265</v>
+      </c>
+      <c r="C165" t="s">
+        <v>38</v>
+      </c>
+      <c r="D165" t="s">
+        <v>222</v>
+      </c>
+      <c r="E165" t="s">
+        <v>234</v>
+      </c>
+      <c r="F165" t="s">
+        <v>266</v>
+      </c>
+      <c r="X165" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z165" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB165" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>49</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" t="s">
+        <v>41</v>
+      </c>
+      <c r="D166" t="s">
+        <v>222</v>
+      </c>
+      <c r="E166" t="s">
+        <v>36</v>
+      </c>
+      <c r="H166" t="s">
+        <v>317</v>
+      </c>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="X166" s="2"/>
+      <c r="Z166" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB166" s="2"/>
+    </row>
+    <row r="167" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>49</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>41</v>
+      </c>
+      <c r="D167" t="s">
+        <v>222</v>
+      </c>
+      <c r="E167" t="s">
+        <v>37</v>
+      </c>
+      <c r="H167" t="s">
+        <v>317</v>
+      </c>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="X167" s="2"/>
+      <c r="Z167" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB167" s="2"/>
+    </row>
+    <row r="168" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>49</v>
+      </c>
+      <c r="B168" t="s">
+        <v>45</v>
+      </c>
+      <c r="C168" t="s">
+        <v>46</v>
+      </c>
+      <c r="D168" t="s">
+        <v>222</v>
+      </c>
+      <c r="E168" t="s">
+        <v>47</v>
+      </c>
+      <c r="F168" t="s">
+        <v>48</v>
+      </c>
+      <c r="H168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>49</v>
+      </c>
+      <c r="B169" t="s">
+        <v>267</v>
+      </c>
+      <c r="C169" t="s">
+        <v>38</v>
+      </c>
+      <c r="D169" t="s">
+        <v>268</v>
+      </c>
+      <c r="E169" t="s">
+        <v>234</v>
+      </c>
+      <c r="F169" t="s">
+        <v>269</v>
+      </c>
+      <c r="X169" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z169" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB169" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>49</v>
+      </c>
+      <c r="B170" t="s">
+        <v>270</v>
+      </c>
+      <c r="C170" t="s">
+        <v>38</v>
+      </c>
+      <c r="D170" t="s">
+        <v>268</v>
+      </c>
+      <c r="E170" t="s">
+        <v>234</v>
+      </c>
+      <c r="F170" t="s">
+        <v>271</v>
+      </c>
+      <c r="X170" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z170" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB170" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>49</v>
+      </c>
+      <c r="B171" t="s">
+        <v>272</v>
+      </c>
+      <c r="C171" t="s">
+        <v>39</v>
+      </c>
+      <c r="D171" t="s">
+        <v>268</v>
+      </c>
+      <c r="E171" t="s">
+        <v>273</v>
+      </c>
+      <c r="F171" t="s">
+        <v>274</v>
+      </c>
+      <c r="X171" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z171" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB171" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>49</v>
+      </c>
+      <c r="B172" t="s">
+        <v>275</v>
+      </c>
+      <c r="C172" t="s">
+        <v>39</v>
+      </c>
+      <c r="D172" t="s">
+        <v>268</v>
+      </c>
+      <c r="E172" t="s">
+        <v>273</v>
+      </c>
+      <c r="F172" t="s">
+        <v>276</v>
+      </c>
+      <c r="X172" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z172" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB172" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>49</v>
+      </c>
+      <c r="B173" t="s">
+        <v>277</v>
+      </c>
+      <c r="C173" t="s">
+        <v>39</v>
+      </c>
+      <c r="D173" t="s">
+        <v>268</v>
+      </c>
+      <c r="E173" t="s">
+        <v>273</v>
+      </c>
+      <c r="F173" t="s">
+        <v>278</v>
+      </c>
+      <c r="X173" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z173" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB173" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>49</v>
+      </c>
+      <c r="B174" t="s">
+        <v>143</v>
+      </c>
+      <c r="C174" t="s">
+        <v>39</v>
+      </c>
+      <c r="D174" t="s">
+        <v>268</v>
+      </c>
+      <c r="E174" t="s">
+        <v>273</v>
+      </c>
+      <c r="F174" t="s">
+        <v>279</v>
+      </c>
+      <c r="X174" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z174" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB174" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>49</v>
+      </c>
+      <c r="B175" t="s">
+        <v>280</v>
+      </c>
+      <c r="C175" t="s">
+        <v>39</v>
+      </c>
+      <c r="D175" t="s">
+        <v>268</v>
+      </c>
+      <c r="E175" t="s">
+        <v>273</v>
+      </c>
+      <c r="F175" t="s">
         <v>281</v>
       </c>
-      <c r="E156" t="s">
-        <v>247</v>
-      </c>
-      <c r="F156" t="s">
+      <c r="X175" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z175" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB175" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>49</v>
+      </c>
+      <c r="B176" t="s">
+        <v>282</v>
+      </c>
+      <c r="C176" t="s">
+        <v>39</v>
+      </c>
+      <c r="D176" t="s">
+        <v>268</v>
+      </c>
+      <c r="E176" t="s">
+        <v>273</v>
+      </c>
+      <c r="F176" t="s">
+        <v>283</v>
+      </c>
+      <c r="X176" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z176" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB176" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>49</v>
+      </c>
+      <c r="B177" t="s">
         <v>284</v>
       </c>
-      <c r="V156" s="2">
-        <v>1</v>
-      </c>
-      <c r="X156" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z156" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>49</v>
-      </c>
-      <c r="B157" t="s">
+      <c r="C177" t="s">
+        <v>39</v>
+      </c>
+      <c r="D177" t="s">
+        <v>268</v>
+      </c>
+      <c r="E177" t="s">
+        <v>273</v>
+      </c>
+      <c r="F177" t="s">
         <v>285</v>
       </c>
-      <c r="C157" t="s">
+      <c r="X177" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z177" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB177" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>49</v>
+      </c>
+      <c r="B178" t="s">
+        <v>286</v>
+      </c>
+      <c r="C178" t="s">
         <v>39</v>
       </c>
-      <c r="D157" t="s">
-        <v>281</v>
-      </c>
-      <c r="E157" t="s">
-        <v>286</v>
-      </c>
-      <c r="F157" t="s">
+      <c r="D178" t="s">
+        <v>268</v>
+      </c>
+      <c r="E178" t="s">
+        <v>273</v>
+      </c>
+      <c r="F178" t="s">
         <v>287</v>
       </c>
-      <c r="V157" s="2">
-        <v>1</v>
-      </c>
-      <c r="X157" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z157" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>49</v>
-      </c>
-      <c r="B158" t="s">
+      <c r="X178" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z178" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB178" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>49</v>
+      </c>
+      <c r="B179" t="s">
         <v>288</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C179" t="s">
         <v>39</v>
       </c>
-      <c r="D158" t="s">
-        <v>281</v>
-      </c>
-      <c r="E158" t="s">
-        <v>286</v>
-      </c>
-      <c r="F158" t="s">
-        <v>289</v>
-      </c>
-      <c r="V158" s="2">
-        <v>1</v>
-      </c>
-      <c r="X158" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z158" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>49</v>
-      </c>
-      <c r="B159" t="s">
-        <v>290</v>
-      </c>
-      <c r="C159" t="s">
-        <v>39</v>
-      </c>
-      <c r="D159" t="s">
-        <v>281</v>
-      </c>
-      <c r="E159" t="s">
-        <v>286</v>
-      </c>
-      <c r="F159" t="s">
-        <v>291</v>
-      </c>
-      <c r="V159" s="2">
-        <v>1</v>
-      </c>
-      <c r="X159" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z159" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>49</v>
-      </c>
-      <c r="B160" t="s">
-        <v>146</v>
-      </c>
-      <c r="C160" t="s">
-        <v>39</v>
-      </c>
-      <c r="D160" t="s">
-        <v>281</v>
-      </c>
-      <c r="E160" t="s">
-        <v>286</v>
-      </c>
-      <c r="F160" t="s">
-        <v>292</v>
-      </c>
-      <c r="V160" s="2">
-        <v>1</v>
-      </c>
-      <c r="X160" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z160" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>49</v>
-      </c>
-      <c r="B161" t="s">
-        <v>293</v>
-      </c>
-      <c r="C161" t="s">
-        <v>39</v>
-      </c>
-      <c r="D161" t="s">
-        <v>281</v>
-      </c>
-      <c r="E161" t="s">
-        <v>286</v>
-      </c>
-      <c r="F161" t="s">
-        <v>294</v>
-      </c>
-      <c r="V161" s="2">
-        <v>1</v>
-      </c>
-      <c r="X161" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z161" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>49</v>
-      </c>
-      <c r="B162" t="s">
-        <v>295</v>
-      </c>
-      <c r="C162" t="s">
-        <v>39</v>
-      </c>
-      <c r="D162" t="s">
-        <v>281</v>
-      </c>
-      <c r="E162" t="s">
-        <v>286</v>
-      </c>
-      <c r="F162" t="s">
-        <v>296</v>
-      </c>
-      <c r="V162" s="2">
-        <v>1</v>
-      </c>
-      <c r="X162" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z162" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>49</v>
-      </c>
-      <c r="B163" t="s">
-        <v>297</v>
-      </c>
-      <c r="C163" t="s">
-        <v>39</v>
-      </c>
-      <c r="D163" t="s">
-        <v>281</v>
-      </c>
-      <c r="E163" t="s">
-        <v>286</v>
-      </c>
-      <c r="F163" t="s">
-        <v>298</v>
-      </c>
-      <c r="V163" s="2">
-        <v>1</v>
-      </c>
-      <c r="X163" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z163" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>49</v>
-      </c>
-      <c r="B164" t="s">
-        <v>299</v>
-      </c>
-      <c r="C164" t="s">
-        <v>39</v>
-      </c>
-      <c r="D164" t="s">
-        <v>281</v>
-      </c>
-      <c r="E164" t="s">
-        <v>286</v>
-      </c>
-      <c r="F164" t="s">
-        <v>300</v>
-      </c>
-      <c r="V164" s="2">
-        <v>1</v>
-      </c>
-      <c r="X164" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z164" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>49</v>
-      </c>
-      <c r="B165" t="s">
-        <v>301</v>
-      </c>
-      <c r="C165" t="s">
-        <v>39</v>
-      </c>
-      <c r="D165" t="s">
-        <v>281</v>
-      </c>
-      <c r="E165" t="s">
-        <v>286</v>
-      </c>
-      <c r="F165" t="s">
-        <v>300</v>
-      </c>
-      <c r="V165" s="2">
-        <v>1</v>
-      </c>
-      <c r="X165" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z165" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>49</v>
-      </c>
-      <c r="B166" t="s">
+      <c r="D179" t="s">
+        <v>268</v>
+      </c>
+      <c r="E179" t="s">
+        <v>273</v>
+      </c>
+      <c r="F179" t="s">
+        <v>287</v>
+      </c>
+      <c r="X179" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z179" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB179" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>49</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>41</v>
+      </c>
+      <c r="D180" t="s">
+        <v>268</v>
+      </c>
+      <c r="E180" t="s">
+        <v>36</v>
+      </c>
+      <c r="H180" t="s">
+        <v>317</v>
+      </c>
+      <c r="R180" s="2"/>
+      <c r="S180" s="2"/>
+      <c r="X180" s="2"/>
+      <c r="Z180" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB180" s="2"/>
+    </row>
+    <row r="181" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>49</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>41</v>
+      </c>
+      <c r="D181" t="s">
+        <v>268</v>
+      </c>
+      <c r="E181" t="s">
+        <v>37</v>
+      </c>
+      <c r="H181" t="s">
+        <v>317</v>
+      </c>
+      <c r="R181" s="2"/>
+      <c r="S181" s="2"/>
+      <c r="X181" s="2"/>
+      <c r="Z181" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB181" s="2"/>
+    </row>
+    <row r="182" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>49</v>
+      </c>
+      <c r="B182" t="s">
         <v>45</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C182" t="s">
         <v>46</v>
       </c>
-      <c r="D166" t="s">
-        <v>281</v>
-      </c>
-      <c r="E166" t="s">
+      <c r="D182" t="s">
+        <v>268</v>
+      </c>
+      <c r="E182" t="s">
         <v>47</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F182" t="s">
         <v>48</v>
+      </c>
+      <c r="H182" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5757,7 +6463,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -5783,7 +6489,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -5812,7 +6518,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -5845,7 +6551,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -5873,7 +6579,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -5881,10 +6587,10 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -5892,10 +6598,10 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -5906,7 +6612,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -5917,7 +6623,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -5928,7 +6634,7 @@
         <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -5939,7 +6645,7 @@
         <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -5947,10 +6653,10 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -5958,10 +6664,10 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -5969,10 +6675,10 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -5980,10 +6686,10 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -5991,10 +6697,10 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6002,10 +6708,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6013,10 +6719,10 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6024,10 +6730,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6035,10 +6741,10 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6046,10 +6752,10 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6057,10 +6763,10 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="187" x14ac:dyDescent="0.2">
@@ -6068,10 +6774,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6079,10 +6785,10 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6090,10 +6796,10 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6101,7 +6807,7 @@
         <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>27</v>
@@ -6112,10 +6818,10 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6123,7 +6829,7 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>27</v>
@@ -6134,10 +6840,10 @@
         <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6190,7 +6896,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
@@ -6217,14 +6923,14 @@
         <v>models.ForeignKey</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D5" t="str">
         <f>RIGHT(K5,U5-S5)</f>
         <v>models.ForeignKey(ProductStock,on_delete=models.CASCADE,related_name='movements')</v>
       </c>
       <c r="K5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -6255,14 +6961,14 @@
         <v>models.CharField</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ref="D6:D12" si="1">RIGHT(K6,U6-S6)</f>
         <v>models.CharField(max_length=50,choices=(('IN','Stock</v>
       </c>
       <c r="K6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -6293,14 +6999,14 @@
         <v>models.PositiveIntegerField</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
         <v>models.PositiveIntegerField()</v>
       </c>
       <c r="K7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
@@ -6331,14 +7037,14 @@
         <v>models.DateTimeField</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
         <v>models.DateTimeField(auto_now_add=True)</v>
       </c>
       <c r="K8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -6376,22 +7082,22 @@
         <v>models.ManyToManyField('Product',blank=True,help_text="Products</v>
       </c>
       <c r="K9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9" t="s">
+        <v>141</v>
+      </c>
+      <c r="N9" t="s">
+        <v>142</v>
+      </c>
+      <c r="O9" t="s">
         <v>143</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
         <v>144</v>
-      </c>
-      <c r="N9" t="s">
-        <v>145</v>
-      </c>
-      <c r="O9" t="s">
-        <v>146</v>
-      </c>
-      <c r="P9" t="s">
-        <v>147</v>
       </c>
       <c r="Q9"/>
       <c r="S9">
@@ -6428,7 +7134,7 @@
         <v>models.DateTimeField(auto_now_add=True)</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
@@ -6551,16 +7257,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
         <v>153</v>
-      </c>
-      <c r="B26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -6568,33 +7274,33 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -6602,49 +7308,49 @@
         <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G39" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I42" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -6652,50 +7358,50 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I50" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J50" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K50" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L50" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M50" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N50" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -6703,61 +7409,61 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F54" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G54" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F58" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I59" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J59" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K59" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L59" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M59" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N59" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6780,7 +7486,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -6794,7 +7500,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -6817,7 +7523,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -6850,7 +7556,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -6879,7 +7585,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -6908,7 +7614,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>29</v>
@@ -6934,7 +7640,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>

--- a/CRUDCreateCode/data/input/models/Product.xlsx
+++ b/CRUDCreateCode/data/input/models/Product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1294180-E9A9-354E-862D-72656B0E5F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B1DFB8-E200-2D4E-9C45-D8907C649419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="500" windowWidth="38400" windowHeight="18880" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
+    <workbookView xWindow="480" yWindow="760" windowWidth="38400" windowHeight="18880" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="365">
   <si>
     <t>Variable</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>class</t>
-  </si>
-  <si>
-    <t>price</t>
   </si>
   <si>
     <t>category</t>
@@ -1037,54 +1034,15 @@
     <t>models.ForeignKey('ProductStock',on_delete=models.CASCADE,related_name='movements')</t>
   </si>
   <si>
-    <t>feker_function</t>
-  </si>
-  <si>
     <t>faker_type</t>
   </si>
   <si>
     <t>float</t>
   </si>
   <si>
-    <t>ProductNameProvider</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
-    <t>ProductCategoryProvider</t>
-  </si>
-  <si>
-    <t>Dynamic_ProductCategory</t>
-  </si>
-  <si>
-    <t>Dynamic_User</t>
-  </si>
-  <si>
-    <t>OrderStatusProvider</t>
-  </si>
-  <si>
-    <t>OrderStatus_total_amount_Provider</t>
-  </si>
-  <si>
-    <t>Dynamic_AddressProvider</t>
-  </si>
-  <si>
-    <t>Dynamic_Payment</t>
-  </si>
-  <si>
-    <t>Dynamic_OrderProvider</t>
-  </si>
-  <si>
-    <t>DynamicProductProvider</t>
-  </si>
-  <si>
-    <t>Order_quantity_Provider</t>
-  </si>
-  <si>
-    <t>Order_price_per_item_Provider</t>
-  </si>
-  <si>
     <t>city()</t>
   </si>
   <si>
@@ -1095,6 +1053,144 @@
   </si>
   <si>
     <t>counrtry()</t>
+  </si>
+  <si>
+    <t>faker_function</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>pydecimal(left_digits=5, right_digits=2, positive=True)</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>random_int(min=1, max=1000)</t>
+  </si>
+  <si>
+    <t>ProductNameProvider()</t>
+  </si>
+  <si>
+    <t>Dynamic_ProductCategory()</t>
+  </si>
+  <si>
+    <t>ProductCategoryProvider()</t>
+  </si>
+  <si>
+    <t>Order_order_status_Provider()</t>
+  </si>
+  <si>
+    <t>Order_total_amount_Provider()</t>
+  </si>
+  <si>
+    <t>Dynamic_Payment()</t>
+  </si>
+  <si>
+    <t>Order_quantity_Provider()</t>
+  </si>
+  <si>
+    <t>Order_price_per_item_Provider()</t>
+  </si>
+  <si>
+    <t>Dynamic_User()</t>
+  </si>
+  <si>
+    <t>Payment_payment_method()</t>
+  </si>
+  <si>
+    <t>Payment_payment_status()</t>
+  </si>
+  <si>
+    <t>Payment_payment_date()</t>
+  </si>
+  <si>
+    <t>ProductView_date_Provider()</t>
+  </si>
+  <si>
+    <t>ProductView_action_Provider()</t>
+  </si>
+  <si>
+    <t>str(uuid4())</t>
+  </si>
+  <si>
+    <t>DiscountInvoiceItemPercentageProvider()</t>
+  </si>
+  <si>
+    <t>InvoiceItemTotalPaymentProvider()</t>
+  </si>
+  <si>
+    <t>InvoiceItemTotalDiscountProvider()</t>
+  </si>
+  <si>
+    <t>InvoiceItemTotalVATProvider()</t>
+  </si>
+  <si>
+    <t>InvoiceItemTotalPriceProvider()</t>
+  </si>
+  <si>
+    <t>InvoiceItemTotalVATPercentageProvider()</t>
+  </si>
+  <si>
+    <t>InvoiceItemDiscountProvider()</t>
+  </si>
+  <si>
+    <t>InvoiceItemPayableProvider()</t>
+  </si>
+  <si>
+    <t>DiscountInvoiceItemStartDateProvider()</t>
+  </si>
+  <si>
+    <t>DiscountInvoiceItemEndDateProvider()</t>
+  </si>
+  <si>
+    <t>Dynamic_Product()</t>
+  </si>
+  <si>
+    <t>Dynamic_Address()</t>
+  </si>
+  <si>
+    <t>address()</t>
+  </si>
+  <si>
+    <t>Dynamic_Order()</t>
+  </si>
+  <si>
+    <t>Dynamic_Cart()</t>
+  </si>
+  <si>
+    <t>Dynamic_Discount()</t>
+  </si>
+  <si>
+    <t>Dynamic_Invoice()</t>
+  </si>
+  <si>
+    <t>DiscountInvoiceStartDate()</t>
+  </si>
+  <si>
+    <t>DiscountInvoiceEndDate()</t>
+  </si>
+  <si>
+    <t>Dynamic_ProductA]Stock()</t>
+  </si>
+  <si>
+    <t>first_name()</t>
+  </si>
+  <si>
+    <t>last_name()</t>
+  </si>
+  <si>
+    <t>"Company"</t>
+  </si>
+  <si>
+    <t>name()</t>
+  </si>
+  <si>
+    <t>country()</t>
+  </si>
+  <si>
+    <t>unit_price</t>
   </si>
 </sst>
 </file>
@@ -1473,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}">
   <dimension ref="A1:AB182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1484,7 +1580,7 @@
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="38.33203125" customWidth="1"/>
     <col min="6" max="6" width="32.1640625" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="46.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.1640625" customWidth="1"/>
     <col min="9" max="9" width="40.33203125" customWidth="1"/>
     <col min="10" max="15" width="11.1640625" customWidth="1"/>
@@ -1492,7 +1588,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1510,10 +1606,10 @@
         <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -1590,10 +1686,10 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s">
-        <v>316</v>
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>324</v>
       </c>
       <c r="T2" s="2"/>
       <c r="X2" s="2">
@@ -1620,7 +1716,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -1642,7 +1738,7 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>364</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -1651,10 +1747,10 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="X4" s="2">
         <v>1</v>
@@ -1671,7 +1767,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -1680,10 +1776,10 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>305</v>
-      </c>
-      <c r="H5" t="s">
-        <v>319</v>
+        <v>304</v>
+      </c>
+      <c r="G5" t="s">
+        <v>325</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="X5" s="2">
@@ -1713,7 +1809,7 @@
         <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -1740,7 +1836,7 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -1755,16 +1851,16 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
       <c r="D8" t="s">
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
@@ -1785,16 +1881,16 @@
         <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
@@ -1843,13 +1939,13 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" t="s">
-        <v>318</v>
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>326</v>
       </c>
       <c r="X11" s="2">
         <v>1</v>
@@ -1872,10 +1968,10 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
@@ -1895,16 +1991,16 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
         <v>8</v>
@@ -1930,13 +2026,13 @@
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -1957,13 +2053,13 @@
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
         <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1978,16 +2074,16 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H16" t="s">
         <v>8</v>
@@ -2015,7 +2111,7 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>
@@ -2032,16 +2128,19 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="G18" t="s">
+        <v>332</v>
       </c>
       <c r="H18" t="s">
         <v>320</v>
@@ -2061,19 +2160,22 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>327</v>
       </c>
       <c r="H19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="X19" s="2">
         <v>1</v>
@@ -2090,19 +2192,22 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>328</v>
       </c>
       <c r="H20" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="X20" s="2">
         <v>1</v>
@@ -2119,19 +2224,19 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="X21" s="2">
         <v>1</v>
@@ -2146,19 +2251,22 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>306</v>
+        <v>305</v>
+      </c>
+      <c r="G22" t="s">
+        <v>350</v>
       </c>
       <c r="H22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="X22" s="2">
         <v>1</v>
@@ -2175,19 +2283,22 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>307</v>
+        <v>306</v>
+      </c>
+      <c r="G23" t="s">
+        <v>350</v>
       </c>
       <c r="H23" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="X23" s="2">
         <v>1</v>
@@ -2204,46 +2315,51 @@
         <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>307</v>
+      </c>
+      <c r="G24" t="s">
+        <v>329</v>
       </c>
       <c r="H24" t="s">
-        <v>317</v>
-      </c>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="X24" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="X24" s="2">
+        <v>1</v>
+      </c>
       <c r="Z24" s="2">
         <v>1</v>
       </c>
-      <c r="AB24" s="2"/>
+      <c r="AB24" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -2258,29 +2374,27 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>308</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>324</v>
-      </c>
-      <c r="X26" s="2">
-        <v>1</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="X26" s="2"/>
       <c r="Z26" s="2">
         <v>1</v>
       </c>
-      <c r="AB26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB26" s="2"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -2293,7 +2407,7 @@
         <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
         <v>47</v>
@@ -2310,19 +2424,22 @@
         <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="G28" t="s">
+        <v>352</v>
       </c>
       <c r="H28" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="X28" s="2">
         <v>1</v>
@@ -2339,19 +2456,22 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
         <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="G29" t="s">
+        <v>349</v>
       </c>
       <c r="H29" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="X29" s="2">
         <v>1</v>
@@ -2368,19 +2488,22 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="G30" t="s">
+        <v>330</v>
       </c>
       <c r="H30" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="X30" s="2">
         <v>1</v>
@@ -2397,19 +2520,22 @@
         <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="G31" t="s">
+        <v>331</v>
       </c>
       <c r="H31" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="X31" s="2">
         <v>1</v>
@@ -2426,16 +2552,16 @@
         <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H32" t="s">
         <v>8</v>
@@ -2455,16 +2581,16 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H33" t="s">
         <v>8</v>
@@ -2484,19 +2610,22 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="G34" t="s">
+        <v>331</v>
       </c>
       <c r="H34" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="X34" s="2">
         <v>1</v>
@@ -2519,13 +2648,13 @@
         <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
       </c>
       <c r="H35" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -2546,13 +2675,13 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
         <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
@@ -2573,7 +2702,7 @@
         <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
         <v>47</v>
@@ -2590,16 +2719,19 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
         <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="G38" t="s">
+        <v>332</v>
       </c>
       <c r="H38" t="s">
         <v>320</v>
@@ -2625,13 +2757,16 @@
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="G39" t="s">
+        <v>351</v>
       </c>
       <c r="H39" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="X39" s="2">
         <v>1</v>
@@ -2654,10 +2789,10 @@
         <v>38</v>
       </c>
       <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" t="s">
         <v>79</v>
-      </c>
-      <c r="E40" t="s">
-        <v>80</v>
       </c>
       <c r="H40" t="s">
         <v>8</v>
@@ -2683,13 +2818,16 @@
         <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>329</v>
+        <v>315</v>
+      </c>
+      <c r="H41" t="s">
+        <v>320</v>
       </c>
       <c r="X41" s="2">
         <v>1</v>
@@ -2712,13 +2850,16 @@
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G42" t="s">
-        <v>330</v>
+        <v>316</v>
+      </c>
+      <c r="H42" t="s">
+        <v>320</v>
       </c>
       <c r="X42" s="2">
         <v>1</v>
@@ -2741,13 +2882,16 @@
         <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s">
-        <v>331</v>
+        <v>317</v>
+      </c>
+      <c r="H43" t="s">
+        <v>320</v>
       </c>
       <c r="X43" s="2">
         <v>1</v>
@@ -2770,13 +2914,16 @@
         <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>332</v>
+        <v>318</v>
+      </c>
+      <c r="H44" t="s">
+        <v>320</v>
       </c>
       <c r="X44" s="2">
         <v>1</v>
@@ -2793,16 +2940,19 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H45" t="s">
+        <v>8</v>
       </c>
       <c r="X45" s="2">
         <v>1</v>
@@ -2819,16 +2969,19 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H46" t="s">
+        <v>8</v>
       </c>
       <c r="X46" s="2">
         <v>1</v>
@@ -2845,16 +2998,19 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
         <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="H47" t="s">
+        <v>8</v>
       </c>
       <c r="X47" s="2">
         <v>1</v>
@@ -2877,13 +3033,13 @@
         <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
       </c>
       <c r="H48" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -2904,13 +3060,13 @@
         <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E49" t="s">
         <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
@@ -2931,7 +3087,7 @@
         <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E50" t="s">
         <v>47</v>
@@ -2948,16 +3104,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
         <v>43</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E51" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="G51" t="s">
+        <v>352</v>
       </c>
       <c r="X51" s="2">
         <v>1</v>
@@ -2974,16 +3133,22 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
         <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="G52" t="s">
+        <v>321</v>
+      </c>
+      <c r="H52" t="s">
+        <v>313</v>
       </c>
       <c r="X52" s="2">
         <v>1</v>
@@ -3000,16 +3165,22 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
         <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="G53" t="s">
+        <v>333</v>
+      </c>
+      <c r="H53" t="s">
+        <v>320</v>
       </c>
       <c r="X53" s="2">
         <v>1</v>
@@ -3026,16 +3197,22 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
         <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E54" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="G54" t="s">
+        <v>334</v>
+      </c>
+      <c r="H54" t="s">
+        <v>320</v>
       </c>
       <c r="X54" s="2">
         <v>1</v>
@@ -3052,16 +3229,22 @@
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
         <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E55" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="G55" t="s">
+        <v>338</v>
+      </c>
+      <c r="H55" t="s">
+        <v>322</v>
       </c>
       <c r="X55" s="2">
         <v>1</v>
@@ -3078,16 +3261,22 @@
         <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
         <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="G56" t="s">
+        <v>335</v>
+      </c>
+      <c r="H56" t="s">
+        <v>314</v>
       </c>
       <c r="X56" s="2">
         <v>1</v>
@@ -3110,13 +3299,13 @@
         <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
       </c>
       <c r="H57" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -3137,13 +3326,13 @@
         <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E58" t="s">
         <v>37</v>
       </c>
       <c r="H58" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
@@ -3164,7 +3353,7 @@
         <v>46</v>
       </c>
       <c r="D59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E59" t="s">
         <v>47</v>
@@ -3181,16 +3370,19 @@
         <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
         <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="G60" t="s">
+        <v>349</v>
       </c>
       <c r="X60" s="2">
         <v>1</v>
@@ -3207,16 +3399,19 @@
         <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E61" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="G61" t="s">
+        <v>332</v>
       </c>
       <c r="X61" s="2">
         <v>1</v>
@@ -3233,16 +3428,19 @@
         <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
         <v>42</v>
       </c>
       <c r="D62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E62" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="H62" t="s">
+        <v>8</v>
       </c>
       <c r="X62" s="2">
         <v>1</v>
@@ -3259,16 +3457,19 @@
         <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
         <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E63" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="H63" t="s">
+        <v>8</v>
       </c>
       <c r="X63" s="2">
         <v>1</v>
@@ -3285,17 +3486,20 @@
         <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
         <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E64" t="s">
         <v>36</v>
       </c>
+      <c r="H64" t="s">
+        <v>8</v>
+      </c>
       <c r="X64" s="2">
         <v>1</v>
       </c>
@@ -3315,13 +3519,13 @@
         <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E65" t="s">
         <v>36</v>
       </c>
       <c r="H65" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
@@ -3342,13 +3546,13 @@
         <v>41</v>
       </c>
       <c r="D66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E66" t="s">
         <v>37</v>
       </c>
       <c r="H66" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
@@ -3369,7 +3573,7 @@
         <v>46</v>
       </c>
       <c r="D67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" t="s">
         <v>47</v>
@@ -3386,16 +3590,22 @@
         <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
         <v>43</v>
       </c>
       <c r="D68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E68" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="G68" t="s">
+        <v>332</v>
+      </c>
+      <c r="H68" t="s">
+        <v>320</v>
       </c>
       <c r="X68" s="2">
         <v>1</v>
@@ -3418,11 +3628,14 @@
         <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
       </c>
+      <c r="H69" t="s">
+        <v>314</v>
+      </c>
       <c r="Z69" s="2">
         <v>1</v>
       </c>
@@ -3438,11 +3651,14 @@
         <v>41</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E70" t="s">
         <v>37</v>
       </c>
+      <c r="H70" t="s">
+        <v>314</v>
+      </c>
       <c r="Z70" s="2">
         <v>1</v>
       </c>
@@ -3458,7 +3674,7 @@
         <v>46</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E71" t="s">
         <v>47</v>
@@ -3466,22 +3682,31 @@
       <c r="F71" t="s">
         <v>48</v>
       </c>
+      <c r="H71" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" t="s">
         <v>43</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E72" t="s">
-        <v>310</v>
+        <v>309</v>
+      </c>
+      <c r="G72" t="s">
+        <v>353</v>
+      </c>
+      <c r="H72" t="s">
+        <v>320</v>
       </c>
       <c r="X72" s="2">
         <v>1</v>
@@ -3498,16 +3723,22 @@
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
         <v>43</v>
       </c>
       <c r="D73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E73" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="G73" t="s">
+        <v>349</v>
+      </c>
+      <c r="H73" t="s">
+        <v>320</v>
       </c>
       <c r="X73" s="2">
         <v>1</v>
@@ -3524,16 +3755,22 @@
         <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
         <v>42</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E74" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="G74" t="s">
+        <v>323</v>
+      </c>
+      <c r="H74" t="s">
+        <v>322</v>
       </c>
       <c r="X74" s="2">
         <v>1</v>
@@ -3556,13 +3793,13 @@
         <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E75" t="s">
         <v>36</v>
       </c>
       <c r="H75" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Z75" s="2">
         <v>1</v>
@@ -3579,13 +3816,13 @@
         <v>41</v>
       </c>
       <c r="D76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E76" t="s">
         <v>37</v>
       </c>
       <c r="H76" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Z76" s="2">
         <v>1</v>
@@ -3602,7 +3839,7 @@
         <v>46</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
         <v>47</v>
@@ -3619,16 +3856,22 @@
         <v>49</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" t="s">
         <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E78" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="G78" t="s">
+        <v>349</v>
+      </c>
+      <c r="H78" t="s">
+        <v>320</v>
       </c>
       <c r="X78" s="2">
         <v>1</v>
@@ -3645,16 +3888,22 @@
         <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79" t="s">
         <v>38</v>
       </c>
       <c r="D79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E79" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="G79" t="s">
+        <v>332</v>
+      </c>
+      <c r="H79" t="s">
+        <v>320</v>
       </c>
       <c r="X79" s="2">
         <v>1</v>
@@ -3671,16 +3920,22 @@
         <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C80" t="s">
         <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E80" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="G80" t="s">
+        <v>336</v>
+      </c>
+      <c r="H80" t="s">
+        <v>314</v>
       </c>
       <c r="X80" s="2">
         <v>1</v>
@@ -3697,16 +3952,22 @@
         <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s">
         <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E81" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="G81" t="s">
+        <v>337</v>
+      </c>
+      <c r="H81" t="s">
+        <v>320</v>
       </c>
       <c r="X81" s="2">
         <v>1</v>
@@ -3723,16 +3984,19 @@
         <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C82" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" t="s">
+        <v>114</v>
+      </c>
+      <c r="E82" t="s">
         <v>122</v>
       </c>
-      <c r="D82" t="s">
-        <v>115</v>
-      </c>
-      <c r="E82" t="s">
-        <v>123</v>
+      <c r="H82" t="s">
+        <v>8</v>
       </c>
       <c r="X82" s="2">
         <v>1</v>
@@ -3749,16 +4013,19 @@
         <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C83" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" t="s">
         <v>122</v>
       </c>
-      <c r="D83" t="s">
-        <v>115</v>
-      </c>
-      <c r="E83" t="s">
-        <v>123</v>
+      <c r="H83" t="s">
+        <v>8</v>
       </c>
       <c r="X83" s="2">
         <v>1</v>
@@ -3781,13 +4048,13 @@
         <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E84" t="s">
         <v>36</v>
       </c>
       <c r="H84" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
@@ -3808,13 +4075,13 @@
         <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E85" t="s">
         <v>37</v>
       </c>
       <c r="H85" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
@@ -3835,7 +4102,7 @@
         <v>46</v>
       </c>
       <c r="D86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E86" t="s">
         <v>47</v>
@@ -3858,10 +4125,13 @@
         <v>38</v>
       </c>
       <c r="D87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E87" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="H87" t="s">
+        <v>8</v>
       </c>
       <c r="X87" s="2">
         <v>1</v>
@@ -3878,16 +4148,19 @@
         <v>49</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C88" t="s">
         <v>38</v>
       </c>
       <c r="D88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E88" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="H88" t="s">
+        <v>8</v>
       </c>
       <c r="X88" s="2">
         <v>1</v>
@@ -3904,16 +4177,19 @@
         <v>49</v>
       </c>
       <c r="B89" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C89" t="s">
         <v>41</v>
       </c>
       <c r="D89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E89" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="H89" t="s">
+        <v>8</v>
       </c>
       <c r="X89" s="2">
         <v>1</v>
@@ -3930,16 +4206,19 @@
         <v>49</v>
       </c>
       <c r="B90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C90" t="s">
         <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E90" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="H90" t="s">
+        <v>8</v>
       </c>
       <c r="X90" s="2">
         <v>1</v>
@@ -3956,16 +4235,19 @@
         <v>49</v>
       </c>
       <c r="B91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" t="s">
         <v>121</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>129</v>
+      </c>
+      <c r="E91" t="s">
         <v>122</v>
       </c>
-      <c r="D91" t="s">
-        <v>130</v>
-      </c>
-      <c r="E91" t="s">
-        <v>123</v>
+      <c r="H91" t="s">
+        <v>8</v>
       </c>
       <c r="X91" s="2">
         <v>1</v>
@@ -3988,13 +4270,13 @@
         <v>41</v>
       </c>
       <c r="D92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E92" t="s">
         <v>36</v>
       </c>
       <c r="H92" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
@@ -4015,13 +4297,13 @@
         <v>41</v>
       </c>
       <c r="D93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E93" t="s">
         <v>37</v>
       </c>
       <c r="H93" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
@@ -4036,16 +4318,19 @@
         <v>49</v>
       </c>
       <c r="B94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C94" t="s">
+        <v>121</v>
+      </c>
+      <c r="D94" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94" t="s">
         <v>122</v>
       </c>
-      <c r="D94" t="s">
-        <v>130</v>
-      </c>
-      <c r="E94" t="s">
-        <v>123</v>
+      <c r="H94" t="s">
+        <v>8</v>
       </c>
       <c r="X94" s="2">
         <v>1</v>
@@ -4068,7 +4353,7 @@
         <v>46</v>
       </c>
       <c r="D95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E95" t="s">
         <v>47</v>
@@ -4091,10 +4376,16 @@
         <v>38</v>
       </c>
       <c r="D96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E96" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="G96" t="s">
+        <v>354</v>
+      </c>
+      <c r="H96" t="s">
+        <v>320</v>
       </c>
       <c r="X96" s="2">
         <v>1</v>
@@ -4111,16 +4402,22 @@
         <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C97" t="s">
         <v>39</v>
       </c>
       <c r="D97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E97" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="G97" t="s">
+        <v>339</v>
+      </c>
+      <c r="H97" t="s">
+        <v>313</v>
       </c>
       <c r="X97" s="2">
         <v>1</v>
@@ -4137,16 +4434,19 @@
         <v>49</v>
       </c>
       <c r="B98" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" t="s">
+        <v>160</v>
+      </c>
+      <c r="D98" t="s">
+        <v>163</v>
+      </c>
+      <c r="E98" t="s">
         <v>136</v>
       </c>
-      <c r="C98" t="s">
-        <v>161</v>
-      </c>
-      <c r="D98" t="s">
-        <v>164</v>
-      </c>
-      <c r="E98" t="s">
-        <v>137</v>
+      <c r="G98" t="s">
+        <v>347</v>
       </c>
       <c r="X98" s="2">
         <v>1</v>
@@ -4163,16 +4463,19 @@
         <v>49</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E99" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="G99" t="s">
+        <v>348</v>
       </c>
       <c r="X99" s="2">
         <v>1</v>
@@ -4189,19 +4492,19 @@
         <v>49</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E100" t="s">
-        <v>301</v>
-      </c>
-      <c r="H100" t="s">
-        <v>8</v>
+        <v>300</v>
+      </c>
+      <c r="G100" t="s">
+        <v>349</v>
       </c>
       <c r="X100" s="2">
         <v>1</v>
@@ -4224,7 +4527,7 @@
         <v>46</v>
       </c>
       <c r="D101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E101" t="s">
         <v>47</v>
@@ -4232,6 +4535,9 @@
       <c r="F101" t="s">
         <v>48</v>
       </c>
+      <c r="H101" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
@@ -4244,10 +4550,16 @@
         <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E102" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="G102" t="s">
+        <v>354</v>
+      </c>
+      <c r="H102" t="s">
+        <v>313</v>
       </c>
       <c r="X102" s="2">
         <v>1</v>
@@ -4264,16 +4576,19 @@
         <v>49</v>
       </c>
       <c r="B103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C103" t="s">
         <v>39</v>
       </c>
       <c r="D103" t="s">
+        <v>165</v>
+      </c>
+      <c r="E103" t="s">
         <v>166</v>
       </c>
-      <c r="E103" t="s">
-        <v>167</v>
+      <c r="G103" t="s">
+        <v>355</v>
       </c>
       <c r="X103" s="2">
         <v>1</v>
@@ -4290,16 +4605,19 @@
         <v>49</v>
       </c>
       <c r="B104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" t="s">
+        <v>160</v>
+      </c>
+      <c r="D104" t="s">
+        <v>165</v>
+      </c>
+      <c r="E104" t="s">
         <v>136</v>
       </c>
-      <c r="C104" t="s">
-        <v>161</v>
-      </c>
-      <c r="D104" t="s">
-        <v>166</v>
-      </c>
-      <c r="E104" t="s">
-        <v>137</v>
+      <c r="G104" t="s">
+        <v>356</v>
       </c>
       <c r="X104" s="2">
         <v>1</v>
@@ -4316,16 +4634,19 @@
         <v>49</v>
       </c>
       <c r="B105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E105" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="G105" t="s">
+        <v>357</v>
       </c>
       <c r="X105" s="2">
         <v>1</v>
@@ -4342,46 +4663,48 @@
         <v>49</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="C106" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="D106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
-      </c>
-      <c r="H106" t="s">
-        <v>317</v>
-      </c>
-      <c r="R106" s="2"/>
-      <c r="S106" s="2"/>
-      <c r="X106" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="G106" t="s">
+        <v>355</v>
+      </c>
+      <c r="X106" s="2">
+        <v>1</v>
+      </c>
       <c r="Z106" s="2">
         <v>1</v>
       </c>
-      <c r="AB106" s="2"/>
+      <c r="AB106" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>49</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
         <v>41</v>
       </c>
       <c r="D107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H107" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="R107" s="2"/>
       <c r="S107" s="2"/>
@@ -4396,26 +4719,27 @@
         <v>49</v>
       </c>
       <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>41</v>
+      </c>
+      <c r="D108" t="s">
         <v>165</v>
       </c>
-      <c r="C108" t="s">
-        <v>162</v>
-      </c>
-      <c r="D108" t="s">
-        <v>166</v>
-      </c>
       <c r="E108" t="s">
-        <v>311</v>
-      </c>
-      <c r="X108" s="2">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H108" t="s">
+        <v>8</v>
+      </c>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="X108" s="2"/>
       <c r="Z108" s="2">
         <v>1</v>
       </c>
-      <c r="AB108" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB108" s="2"/>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
@@ -4428,7 +4752,7 @@
         <v>46</v>
       </c>
       <c r="D109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E109" t="s">
         <v>47</v>
@@ -4451,10 +4775,10 @@
         <v>38</v>
       </c>
       <c r="D110" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X110" s="2">
         <v>1</v>
@@ -4471,16 +4795,16 @@
         <v>49</v>
       </c>
       <c r="B111" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C111" t="s">
         <v>39</v>
       </c>
       <c r="D111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X111" s="2">
         <v>1</v>
@@ -4497,16 +4821,16 @@
         <v>49</v>
       </c>
       <c r="B112" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C112" t="s">
         <v>38</v>
       </c>
       <c r="D112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X112" s="2">
         <v>1</v>
@@ -4529,13 +4853,13 @@
         <v>41</v>
       </c>
       <c r="D113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E113" t="s">
         <v>36</v>
       </c>
       <c r="H113" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="Z113" s="2">
         <v>1</v>
@@ -4552,13 +4876,13 @@
         <v>41</v>
       </c>
       <c r="D114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E114" t="s">
         <v>37</v>
       </c>
       <c r="H114" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="Z114" s="2">
         <v>1</v>
@@ -4575,7 +4899,7 @@
         <v>46</v>
       </c>
       <c r="D115" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E115" t="s">
         <v>47</v>
@@ -4592,16 +4916,19 @@
         <v>49</v>
       </c>
       <c r="B116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C116" t="s">
         <v>43</v>
       </c>
       <c r="D116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E116" t="s">
-        <v>302</v>
+        <v>301</v>
+      </c>
+      <c r="G116" t="s">
+        <v>349</v>
       </c>
       <c r="X116" s="2">
         <v>1</v>
@@ -4618,16 +4945,16 @@
         <v>49</v>
       </c>
       <c r="B117" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C117" t="s">
         <v>38</v>
       </c>
       <c r="D117" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X117" s="2">
         <v>1</v>
@@ -4644,16 +4971,16 @@
         <v>49</v>
       </c>
       <c r="B118" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C118" t="s">
         <v>38</v>
       </c>
       <c r="D118" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X118" s="2">
         <v>1</v>
@@ -4676,13 +5003,13 @@
         <v>41</v>
       </c>
       <c r="D119" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E119" t="s">
         <v>36</v>
       </c>
       <c r="H119" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="R119" s="2"/>
       <c r="S119" s="2"/>
@@ -4703,13 +5030,13 @@
         <v>41</v>
       </c>
       <c r="D120" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E120" t="s">
         <v>37</v>
       </c>
       <c r="H120" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
@@ -4730,7 +5057,7 @@
         <v>46</v>
       </c>
       <c r="D121" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E121" t="s">
         <v>47</v>
@@ -4747,16 +5074,19 @@
         <v>49</v>
       </c>
       <c r="B122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C122" t="s">
         <v>43</v>
       </c>
       <c r="D122" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E122" t="s">
-        <v>303</v>
+        <v>302</v>
+      </c>
+      <c r="G122" t="s">
+        <v>349</v>
       </c>
       <c r="X122" s="2">
         <v>1</v>
@@ -4773,16 +5103,16 @@
         <v>49</v>
       </c>
       <c r="B123" t="s">
+        <v>174</v>
+      </c>
+      <c r="C123" t="s">
         <v>175</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>173</v>
+      </c>
+      <c r="E123" t="s">
         <v>176</v>
-      </c>
-      <c r="D123" t="s">
-        <v>174</v>
-      </c>
-      <c r="E123" t="s">
-        <v>177</v>
       </c>
       <c r="X123" s="2">
         <v>1</v>
@@ -4799,16 +5129,16 @@
         <v>49</v>
       </c>
       <c r="B124" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C124" t="s">
         <v>38</v>
       </c>
       <c r="D124" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X124" s="2">
         <v>1</v>
@@ -4825,16 +5155,16 @@
         <v>49</v>
       </c>
       <c r="B125" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C125" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E125" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X125" s="2">
         <v>1</v>
@@ -4851,16 +5181,19 @@
         <v>49</v>
       </c>
       <c r="B126" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C126" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E126" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="G126" t="s">
+        <v>349</v>
       </c>
       <c r="X126" s="2">
         <v>1</v>
@@ -4877,16 +5210,16 @@
         <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C127" t="s">
+        <v>180</v>
+      </c>
+      <c r="D127" t="s">
+        <v>208</v>
+      </c>
+      <c r="E127" t="s">
         <v>181</v>
-      </c>
-      <c r="D127" t="s">
-        <v>209</v>
-      </c>
-      <c r="E127" t="s">
-        <v>182</v>
       </c>
       <c r="X127" s="2">
         <v>1</v>
@@ -4909,7 +5242,7 @@
         <v>46</v>
       </c>
       <c r="D128" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E128" t="s">
         <v>47</v>
@@ -4932,10 +5265,10 @@
         <v>38</v>
       </c>
       <c r="D129" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E129" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X129" s="2">
         <v>1</v>
@@ -4952,16 +5285,16 @@
         <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C130" t="s">
         <v>38</v>
       </c>
       <c r="D130" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E130" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X130" s="2">
         <v>1</v>
@@ -4984,13 +5317,13 @@
         <v>41</v>
       </c>
       <c r="D131" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E131" t="s">
         <v>36</v>
       </c>
       <c r="H131" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="R131" s="2"/>
       <c r="S131" s="2"/>
@@ -5011,13 +5344,13 @@
         <v>41</v>
       </c>
       <c r="D132" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E132" t="s">
         <v>37</v>
       </c>
       <c r="H132" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="R132" s="2"/>
       <c r="S132" s="2"/>
@@ -5038,7 +5371,7 @@
         <v>46</v>
       </c>
       <c r="D133" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E133" t="s">
         <v>47</v>
@@ -5055,16 +5388,19 @@
         <v>49</v>
       </c>
       <c r="B134" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C134" t="s">
         <v>43</v>
       </c>
       <c r="D134" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E134" t="s">
-        <v>312</v>
+        <v>311</v>
+      </c>
+      <c r="G134" t="s">
+        <v>358</v>
       </c>
       <c r="X134" s="2">
         <v>1</v>
@@ -5081,16 +5417,16 @@
         <v>49</v>
       </c>
       <c r="B135" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C135" t="s">
         <v>38</v>
       </c>
       <c r="D135" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E135" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X135" s="2">
         <v>1</v>
@@ -5107,16 +5443,16 @@
         <v>49</v>
       </c>
       <c r="B136" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C136" t="s">
+        <v>180</v>
+      </c>
+      <c r="D136" t="s">
+        <v>206</v>
+      </c>
+      <c r="E136" t="s">
         <v>181</v>
-      </c>
-      <c r="D136" t="s">
-        <v>207</v>
-      </c>
-      <c r="E136" t="s">
-        <v>182</v>
       </c>
       <c r="X136" s="2">
         <v>1</v>
@@ -5133,13 +5469,13 @@
         <v>49</v>
       </c>
       <c r="B137" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C137" t="s">
         <v>41</v>
       </c>
       <c r="D137" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E137" t="s">
         <v>36</v>
@@ -5165,13 +5501,13 @@
         <v>41</v>
       </c>
       <c r="D138" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E138" t="s">
         <v>36</v>
       </c>
       <c r="H138" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="R138" s="2"/>
       <c r="S138" s="2"/>
@@ -5192,13 +5528,13 @@
         <v>41</v>
       </c>
       <c r="D139" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E139" t="s">
         <v>37</v>
       </c>
       <c r="H139" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="R139" s="2"/>
       <c r="S139" s="2"/>
@@ -5219,7 +5555,7 @@
         <v>46</v>
       </c>
       <c r="D140" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E140" t="s">
         <v>47</v>
@@ -5236,19 +5572,19 @@
         <v>49</v>
       </c>
       <c r="B141" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C141" t="s">
         <v>38</v>
       </c>
       <c r="D141" t="s">
+        <v>221</v>
+      </c>
+      <c r="E141" t="s">
         <v>222</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
@@ -5268,19 +5604,19 @@
         <v>49</v>
       </c>
       <c r="B142" t="s">
+        <v>224</v>
+      </c>
+      <c r="C142" t="s">
+        <v>160</v>
+      </c>
+      <c r="D142" t="s">
+        <v>221</v>
+      </c>
+      <c r="E142" t="s">
         <v>225</v>
       </c>
-      <c r="C142" t="s">
-        <v>161</v>
-      </c>
-      <c r="D142" t="s">
-        <v>222</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>226</v>
-      </c>
-      <c r="F142" t="s">
-        <v>227</v>
       </c>
       <c r="T142" s="2"/>
       <c r="X142" s="2">
@@ -5296,19 +5632,19 @@
         <v>49</v>
       </c>
       <c r="B143" t="s">
+        <v>227</v>
+      </c>
+      <c r="C143" t="s">
+        <v>160</v>
+      </c>
+      <c r="D143" t="s">
+        <v>221</v>
+      </c>
+      <c r="E143" t="s">
+        <v>136</v>
+      </c>
+      <c r="F143" t="s">
         <v>228</v>
-      </c>
-      <c r="C143" t="s">
-        <v>161</v>
-      </c>
-      <c r="D143" t="s">
-        <v>222</v>
-      </c>
-      <c r="E143" t="s">
-        <v>137</v>
-      </c>
-      <c r="F143" t="s">
-        <v>229</v>
       </c>
       <c r="R143" s="2"/>
       <c r="S143" s="2"/>
@@ -5327,19 +5663,25 @@
         <v>49</v>
       </c>
       <c r="B144" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C144" t="s">
         <v>38</v>
       </c>
       <c r="D144" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E144" t="s">
+        <v>230</v>
+      </c>
+      <c r="F144" t="s">
         <v>231</v>
       </c>
-      <c r="F144" t="s">
-        <v>232</v>
+      <c r="G144" t="s">
+        <v>332</v>
+      </c>
+      <c r="H144" t="s">
+        <v>320</v>
       </c>
       <c r="X144" s="2">
         <v>1</v>
@@ -5356,19 +5698,22 @@
         <v>49</v>
       </c>
       <c r="B145" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C145" t="s">
         <v>38</v>
       </c>
       <c r="D145" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E145" t="s">
+        <v>233</v>
+      </c>
+      <c r="F145" t="s">
         <v>234</v>
       </c>
-      <c r="F145" t="s">
-        <v>235</v>
+      <c r="H145" t="s">
+        <v>8</v>
       </c>
       <c r="X145" s="2">
         <v>1</v>
@@ -5385,19 +5730,25 @@
         <v>49</v>
       </c>
       <c r="B146" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C146" t="s">
         <v>38</v>
       </c>
       <c r="D146" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E146" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F146" t="s">
-        <v>237</v>
+        <v>361</v>
+      </c>
+      <c r="G146" t="s">
+        <v>362</v>
+      </c>
+      <c r="H146" t="s">
+        <v>320</v>
       </c>
       <c r="X146" s="2">
         <v>1</v>
@@ -5414,19 +5765,25 @@
         <v>49</v>
       </c>
       <c r="B147" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C147" t="s">
         <v>38</v>
       </c>
       <c r="D147" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E147" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F147" t="s">
-        <v>237</v>
+        <v>236</v>
+      </c>
+      <c r="G147" t="s">
+        <v>359</v>
+      </c>
+      <c r="H147" t="s">
+        <v>320</v>
       </c>
       <c r="X147" s="2">
         <v>1</v>
@@ -5443,19 +5800,25 @@
         <v>49</v>
       </c>
       <c r="B148" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C148" t="s">
         <v>38</v>
       </c>
       <c r="D148" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E148" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F148" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="G148" t="s">
+        <v>360</v>
+      </c>
+      <c r="H148" t="s">
+        <v>320</v>
       </c>
       <c r="X148" s="2">
         <v>1</v>
@@ -5472,19 +5835,25 @@
         <v>49</v>
       </c>
       <c r="B149" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C149" t="s">
         <v>38</v>
       </c>
       <c r="D149" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E149" t="s">
+        <v>240</v>
+      </c>
+      <c r="F149" t="s">
         <v>241</v>
       </c>
-      <c r="F149" t="s">
-        <v>242</v>
+      <c r="G149" t="s">
+        <v>351</v>
+      </c>
+      <c r="H149" t="s">
+        <v>320</v>
       </c>
       <c r="X149" s="2">
         <v>1</v>
@@ -5501,19 +5870,25 @@
         <v>49</v>
       </c>
       <c r="B150" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C150" t="s">
         <v>38</v>
       </c>
       <c r="D150" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E150" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F150" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="G150" t="s">
+        <v>315</v>
+      </c>
+      <c r="H150" t="s">
+        <v>320</v>
       </c>
       <c r="R150" s="2"/>
       <c r="S150" s="2"/>
@@ -5532,19 +5907,25 @@
         <v>49</v>
       </c>
       <c r="B151" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C151" t="s">
         <v>38</v>
       </c>
       <c r="D151" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E151" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F151" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="G151" t="s">
+        <v>316</v>
+      </c>
+      <c r="H151" t="s">
+        <v>320</v>
       </c>
       <c r="R151" s="2"/>
       <c r="S151" s="2"/>
@@ -5563,19 +5944,25 @@
         <v>49</v>
       </c>
       <c r="B152" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C152" t="s">
         <v>38</v>
       </c>
       <c r="D152" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E152" t="s">
+        <v>244</v>
+      </c>
+      <c r="F152" t="s">
         <v>245</v>
       </c>
-      <c r="F152" t="s">
-        <v>246</v>
+      <c r="G152" t="s">
+        <v>317</v>
+      </c>
+      <c r="H152" t="s">
+        <v>320</v>
       </c>
       <c r="U152" s="2"/>
       <c r="X152" s="2">
@@ -5593,19 +5980,25 @@
         <v>49</v>
       </c>
       <c r="B153" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C153" t="s">
         <v>38</v>
       </c>
       <c r="D153" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E153" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F153" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="G153" t="s">
+        <v>363</v>
+      </c>
+      <c r="H153" t="s">
+        <v>320</v>
       </c>
       <c r="V153" s="2"/>
       <c r="X153" s="2">
@@ -5623,19 +6016,25 @@
         <v>49</v>
       </c>
       <c r="B154" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C154" t="s">
         <v>38</v>
       </c>
       <c r="D154" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E154" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F154" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="G154" t="s">
+        <v>351</v>
+      </c>
+      <c r="H154" t="s">
+        <v>320</v>
       </c>
       <c r="X154" s="2">
         <v>1</v>
@@ -5652,19 +6051,25 @@
         <v>49</v>
       </c>
       <c r="B155" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C155" t="s">
         <v>38</v>
       </c>
       <c r="D155" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E155" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F155" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="G155" t="s">
+        <v>315</v>
+      </c>
+      <c r="H155" t="s">
+        <v>320</v>
       </c>
       <c r="R155" s="2"/>
       <c r="S155" s="2"/>
@@ -5683,19 +6088,25 @@
         <v>49</v>
       </c>
       <c r="B156" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C156" t="s">
         <v>38</v>
       </c>
       <c r="D156" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E156" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F156" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="G156" t="s">
+        <v>316</v>
+      </c>
+      <c r="H156" t="s">
+        <v>320</v>
       </c>
       <c r="R156" s="2"/>
       <c r="S156" s="2"/>
@@ -5714,19 +6125,25 @@
         <v>49</v>
       </c>
       <c r="B157" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C157" t="s">
         <v>38</v>
       </c>
       <c r="D157" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E157" t="s">
+        <v>244</v>
+      </c>
+      <c r="F157" t="s">
         <v>245</v>
       </c>
-      <c r="F157" t="s">
-        <v>246</v>
+      <c r="G157" t="s">
+        <v>317</v>
+      </c>
+      <c r="H157" t="s">
+        <v>320</v>
       </c>
       <c r="U157" s="2"/>
       <c r="X157" s="2">
@@ -5744,19 +6161,25 @@
         <v>49</v>
       </c>
       <c r="B158" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C158" t="s">
         <v>38</v>
       </c>
       <c r="D158" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E158" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F158" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="G158" t="s">
+        <v>363</v>
+      </c>
+      <c r="H158" t="s">
+        <v>320</v>
       </c>
       <c r="V158" s="2"/>
       <c r="X158" s="2">
@@ -5774,19 +6197,22 @@
         <v>49</v>
       </c>
       <c r="B159" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C159" t="s">
         <v>38</v>
       </c>
       <c r="D159" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E159" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F159" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="H159" t="s">
+        <v>8</v>
       </c>
       <c r="X159" s="2">
         <v>1</v>
@@ -5803,19 +6229,22 @@
         <v>49</v>
       </c>
       <c r="B160" t="s">
+        <v>250</v>
+      </c>
+      <c r="C160" t="s">
         <v>251</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
+        <v>221</v>
+      </c>
+      <c r="E160" t="s">
         <v>252</v>
       </c>
-      <c r="D160" t="s">
-        <v>222</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>253</v>
       </c>
-      <c r="F160" t="s">
-        <v>254</v>
+      <c r="H160" t="s">
+        <v>8</v>
       </c>
       <c r="X160" s="2">
         <v>1</v>
@@ -5832,19 +6261,22 @@
         <v>49</v>
       </c>
       <c r="B161" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C161" t="s">
         <v>38</v>
       </c>
       <c r="D161" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E161" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F161" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="H161" t="s">
+        <v>8</v>
       </c>
       <c r="X161" s="2">
         <v>1</v>
@@ -5861,19 +6293,22 @@
         <v>49</v>
       </c>
       <c r="B162" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C162" t="s">
         <v>40</v>
       </c>
       <c r="D162" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E162" t="s">
+        <v>257</v>
+      </c>
+      <c r="F162" t="s">
         <v>258</v>
       </c>
-      <c r="F162" t="s">
-        <v>259</v>
+      <c r="H162" t="s">
+        <v>8</v>
       </c>
       <c r="X162" s="2">
         <v>1</v>
@@ -5890,19 +6325,19 @@
         <v>49</v>
       </c>
       <c r="B163" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C163" t="s">
         <v>38</v>
       </c>
       <c r="D163" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E163" t="s">
+        <v>260</v>
+      </c>
+      <c r="F163" t="s">
         <v>261</v>
-      </c>
-      <c r="F163" t="s">
-        <v>262</v>
       </c>
       <c r="X163" s="2">
         <v>1</v>
@@ -5919,19 +6354,19 @@
         <v>49</v>
       </c>
       <c r="B164" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C164" t="s">
         <v>38</v>
       </c>
       <c r="D164" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E164" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F164" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X164" s="2">
         <v>1</v>
@@ -5948,19 +6383,22 @@
         <v>49</v>
       </c>
       <c r="B165" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C165" t="s">
         <v>38</v>
       </c>
       <c r="D165" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E165" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F165" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="H165" t="s">
+        <v>8</v>
       </c>
       <c r="X165" s="2">
         <v>1</v>
@@ -5983,13 +6421,13 @@
         <v>41</v>
       </c>
       <c r="D166" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E166" t="s">
         <v>36</v>
       </c>
       <c r="H166" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="R166" s="2"/>
       <c r="S166" s="2"/>
@@ -6010,13 +6448,13 @@
         <v>41</v>
       </c>
       <c r="D167" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E167" t="s">
         <v>37</v>
       </c>
       <c r="H167" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="R167" s="2"/>
       <c r="S167" s="2"/>
@@ -6037,7 +6475,7 @@
         <v>46</v>
       </c>
       <c r="D168" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E168" t="s">
         <v>47</v>
@@ -6054,19 +6492,19 @@
         <v>49</v>
       </c>
       <c r="B169" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C169" t="s">
         <v>38</v>
       </c>
       <c r="D169" t="s">
+        <v>267</v>
+      </c>
+      <c r="E169" t="s">
+        <v>233</v>
+      </c>
+      <c r="F169" t="s">
         <v>268</v>
-      </c>
-      <c r="E169" t="s">
-        <v>234</v>
-      </c>
-      <c r="F169" t="s">
-        <v>269</v>
       </c>
       <c r="X169" s="2">
         <v>1</v>
@@ -6083,19 +6521,19 @@
         <v>49</v>
       </c>
       <c r="B170" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C170" t="s">
         <v>38</v>
       </c>
       <c r="D170" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E170" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F170" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X170" s="2">
         <v>1</v>
@@ -6112,19 +6550,19 @@
         <v>49</v>
       </c>
       <c r="B171" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C171" t="s">
         <v>39</v>
       </c>
       <c r="D171" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E171" t="s">
+        <v>272</v>
+      </c>
+      <c r="F171" t="s">
         <v>273</v>
-      </c>
-      <c r="F171" t="s">
-        <v>274</v>
       </c>
       <c r="X171" s="2">
         <v>1</v>
@@ -6141,19 +6579,22 @@
         <v>49</v>
       </c>
       <c r="B172" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C172" t="s">
         <v>39</v>
       </c>
       <c r="D172" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E172" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F172" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="X172" s="2">
         <v>1</v>
@@ -6170,19 +6611,25 @@
         <v>49</v>
       </c>
       <c r="B173" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C173" t="s">
         <v>39</v>
       </c>
       <c r="D173" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E173" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F173" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="X173" s="2">
         <v>1</v>
@@ -6199,19 +6646,25 @@
         <v>49</v>
       </c>
       <c r="B174" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C174" t="s">
         <v>39</v>
       </c>
       <c r="D174" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E174" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F174" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+      <c r="G174" t="s">
+        <v>345</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="X174" s="2">
         <v>1</v>
@@ -6228,19 +6681,25 @@
         <v>49</v>
       </c>
       <c r="B175" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C175" t="s">
         <v>39</v>
       </c>
       <c r="D175" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E175" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F175" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="G175" t="s">
+        <v>346</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="X175" s="2">
         <v>1</v>
@@ -6257,19 +6716,25 @@
         <v>49</v>
       </c>
       <c r="B176" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C176" t="s">
         <v>39</v>
       </c>
       <c r="D176" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E176" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F176" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="X176" s="2">
         <v>1</v>
@@ -6286,19 +6751,25 @@
         <v>49</v>
       </c>
       <c r="B177" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C177" t="s">
         <v>39</v>
       </c>
       <c r="D177" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E177" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F177" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="X177" s="2">
         <v>1</v>
@@ -6315,19 +6786,25 @@
         <v>49</v>
       </c>
       <c r="B178" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C178" t="s">
         <v>39</v>
       </c>
       <c r="D178" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E178" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F178" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="G178" t="s">
+        <v>341</v>
+      </c>
+      <c r="H178" t="s">
+        <v>313</v>
       </c>
       <c r="X178" s="2">
         <v>1</v>
@@ -6344,19 +6821,25 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C179" t="s">
         <v>39</v>
       </c>
       <c r="D179" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E179" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F179" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="G179" t="s">
+        <v>340</v>
+      </c>
+      <c r="H179" t="s">
+        <v>313</v>
       </c>
       <c r="X179" s="2">
         <v>1</v>
@@ -6379,13 +6862,13 @@
         <v>41</v>
       </c>
       <c r="D180" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E180" t="s">
         <v>36</v>
       </c>
       <c r="H180" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="R180" s="2"/>
       <c r="S180" s="2"/>
@@ -6406,13 +6889,13 @@
         <v>41</v>
       </c>
       <c r="D181" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E181" t="s">
         <v>37</v>
       </c>
       <c r="H181" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="R181" s="2"/>
       <c r="S181" s="2"/>
@@ -6433,7 +6916,7 @@
         <v>46</v>
       </c>
       <c r="D182" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E182" t="s">
         <v>47</v>
@@ -6463,7 +6946,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -6489,7 +6972,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -6518,7 +7001,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -6540,7 +7023,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A27"/>
+      <selection activeCell="A2" sqref="A2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6551,7 +7034,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -6579,7 +7062,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6587,10 +7070,10 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6598,10 +7081,10 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6609,10 +7092,10 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6620,10 +7103,10 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6631,10 +7114,10 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6642,10 +7125,10 @@
         <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6653,10 +7136,10 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6664,10 +7147,10 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6675,10 +7158,10 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6686,10 +7169,10 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6697,10 +7180,10 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6708,10 +7191,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6719,10 +7202,10 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6730,10 +7213,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6741,10 +7224,10 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6752,10 +7235,10 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6763,10 +7246,10 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="187" x14ac:dyDescent="0.2">
@@ -6774,10 +7257,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6785,10 +7268,10 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6796,10 +7279,10 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6807,7 +7290,7 @@
         <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>27</v>
@@ -6818,10 +7301,10 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -6829,7 +7312,7 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>27</v>
@@ -6840,10 +7323,10 @@
         <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -6896,21 +7379,21 @@
         <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="S4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4" t="s">
         <v>57</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>58</v>
-      </c>
-      <c r="V4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -6923,14 +7406,14 @@
         <v>models.ForeignKey</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" t="str">
         <f>RIGHT(K5,U5-S5)</f>
         <v>models.ForeignKey(ProductStock,on_delete=models.CASCADE,related_name='movements')</v>
       </c>
       <c r="K5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -6961,14 +7444,14 @@
         <v>models.CharField</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ref="D6:D12" si="1">RIGHT(K6,U6-S6)</f>
         <v>models.CharField(max_length=50,choices=(('IN','Stock</v>
       </c>
       <c r="K6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -6999,14 +7482,14 @@
         <v>models.PositiveIntegerField</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
         <v>models.PositiveIntegerField()</v>
       </c>
       <c r="K7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
@@ -7037,14 +7520,14 @@
         <v>models.DateTimeField</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
         <v>models.DateTimeField(auto_now_add=True)</v>
       </c>
       <c r="K8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -7075,29 +7558,29 @@
         <v>models.ManyToManyField</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
         <v>models.ManyToManyField('Product',blank=True,help_text="Products</v>
       </c>
       <c r="K9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L9" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" t="s">
         <v>140</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>141</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>142</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>143</v>
-      </c>
-      <c r="P9" t="s">
-        <v>144</v>
       </c>
       <c r="Q9"/>
       <c r="S9">
@@ -7127,14 +7610,14 @@
         <v>models.DateTimeField</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
         <v>models.DateTimeField(auto_now_add=True)</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
@@ -7163,7 +7646,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="e">
         <f t="shared" si="1"/>
@@ -7196,7 +7679,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" t="e">
         <f t="shared" si="1"/>
@@ -7229,14 +7712,14 @@
         <v>models.CharField</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" t="str">
         <f>RIGHT(K13,U13-S13)</f>
         <v>models.CharField(max_length=255)</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S13">
         <f>FIND("=",K13)</f>
@@ -7257,16 +7740,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="s">
         <v>150</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>151</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>152</v>
-      </c>
-      <c r="D26" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -7274,33 +7757,33 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" t="s">
         <v>145</v>
-      </c>
-      <c r="F32" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I33" t="s">
+        <v>146</v>
+      </c>
+      <c r="J33" t="s">
         <v>147</v>
-      </c>
-      <c r="J33" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -7308,49 +7791,49 @@
         <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" t="s">
         <v>198</v>
-      </c>
-      <c r="F39" t="s">
-        <v>185</v>
-      </c>
-      <c r="G39" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" t="s">
         <v>145</v>
-      </c>
-      <c r="F41" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I42" t="s">
+        <v>146</v>
+      </c>
+      <c r="J42" t="s">
         <v>147</v>
-      </c>
-      <c r="J42" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -7358,50 +7841,50 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" t="s">
         <v>145</v>
-      </c>
-      <c r="F49" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J50" t="s">
+        <v>186</v>
+      </c>
+      <c r="K50" t="s">
+        <v>158</v>
+      </c>
+      <c r="L50" t="s">
         <v>187</v>
       </c>
-      <c r="K50" t="s">
-        <v>159</v>
-      </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
+        <v>148</v>
+      </c>
+      <c r="N50" t="s">
         <v>188</v>
-      </c>
-      <c r="M50" t="s">
-        <v>149</v>
-      </c>
-      <c r="N50" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -7409,61 +7892,61 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
+        <v>202</v>
+      </c>
+      <c r="F54" t="s">
         <v>203</v>
       </c>
-      <c r="F54" t="s">
-        <v>204</v>
-      </c>
       <c r="G54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" t="s">
         <v>145</v>
-      </c>
-      <c r="F58" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J59" t="s">
+        <v>194</v>
+      </c>
+      <c r="K59" t="s">
+        <v>148</v>
+      </c>
+      <c r="L59" t="s">
         <v>195</v>
       </c>
-      <c r="K59" t="s">
-        <v>149</v>
-      </c>
-      <c r="L59" t="s">
-        <v>196</v>
-      </c>
       <c r="M59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -7476,7 +7959,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7486,7 +7969,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -7500,7 +7983,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -7523,7 +8006,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -7556,7 +8039,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -7585,7 +8068,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -7614,7 +8097,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>29</v>
@@ -7640,7 +8123,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
